--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -333,6 +339,15 @@
     <t>C_0_1</t>
   </si>
   <si>
+    <t>C_0_2</t>
+  </si>
+  <si>
+    <t>C_0_3</t>
+  </si>
+  <si>
+    <t>C_0_4</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -348,6 +363,21 @@
     <t>C_1_3</t>
   </si>
   <si>
+    <t>C_1_4</t>
+  </si>
+  <si>
+    <t>C_1_5</t>
+  </si>
+  <si>
+    <t>C_1_6</t>
+  </si>
+  <si>
+    <t>C_1_7</t>
+  </si>
+  <si>
+    <t>C_1_8</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -357,9 +387,21 @@
     <t>C_2_1</t>
   </si>
   <si>
+    <t>C_2_2</t>
+  </si>
+  <si>
     <t>CS3</t>
   </si>
   <si>
+    <t>C_3_0</t>
+  </si>
+  <si>
+    <t>C_3_1</t>
+  </si>
+  <si>
+    <t>C_3_2</t>
+  </si>
+  <si>
     <t>Pipe segment</t>
   </si>
   <si>
@@ -411,10 +453,19 @@
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
+    <t>PI01_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_pre_C_0_2</t>
+  </si>
+  <si>
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_1</t>
+    <t>PI02_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_pre_C_0_4</t>
   </si>
   <si>
     <t>PI02_remaining</t>
@@ -423,19 +474,34 @@
     <t>PI03_pre_C_1_0</t>
   </si>
   <si>
+    <t>PI03_pre_C_1_1</t>
+  </si>
+  <si>
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
-  </si>
-  <si>
     <t>PI04_pre_C_1_2</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_5</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_3</t>
+    <t>PI05_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_8</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -447,16 +513,22 @@
     <t>PI06_remaining</t>
   </si>
   <si>
-    <t>PI07_pre_C_2_1</t>
+    <t>PI07_pre_C_2_2</t>
   </si>
   <si>
     <t>PI07_remaining</t>
   </si>
   <si>
-    <t>PI08</t>
-  </si>
-  <si>
-    <t>PI09</t>
+    <t>PI08_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_remaining</t>
+  </si>
+  <si>
+    <t>PI09_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_remaining</t>
   </si>
   <si>
     <t>N01</t>
@@ -465,10 +537,19 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
+    <t>N_post_C_0_2</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
-    <t>N_post_C_0_1</t>
+    <t>N_post_C_0_3</t>
+  </si>
+  <si>
+    <t>N_post_C_0_4</t>
   </si>
   <si>
     <t>N03_C</t>
@@ -477,19 +558,34 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_1</t>
-  </si>
-  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
+    <t>N_post_C_1_3</t>
+  </si>
+  <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N_post_C_1_5</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_3</t>
+    <t>N_post_C_1_6</t>
+  </si>
+  <si>
+    <t>N_post_C_1_7</t>
+  </si>
+  <si>
+    <t>N_post_C_1_8</t>
   </si>
   <si>
     <t>N06_C</t>
@@ -498,49 +594,91 @@
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N_post_C_2_1</t>
+  </si>
+  <si>
+    <t>N_post_C_2_2</t>
+  </si>
+  <si>
+    <t>N08_C</t>
+  </si>
+  <si>
+    <t>N_post_C_3_0</t>
+  </si>
+  <si>
+    <t>N_post_C_3_1</t>
+  </si>
+  <si>
+    <t>N_post_C_3_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_4</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_5</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N_pre_C_2_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
-    <t>N_post_C_2_1</t>
-  </si>
-  <si>
-    <t>N08_C</t>
+    <t>N_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N_pre_C_3_0</t>
   </si>
   <si>
     <t>N09</t>
   </si>
   <si>
-    <t>N_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_2_1</t>
-  </si>
-  <si>
-    <t>N08</t>
+    <t>N_pre_C_3_2</t>
   </si>
   <si>
     <t>N10</t>
@@ -573,7 +711,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1215,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1237,10 +1375,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3972078716802663</v>
+        <v>0.7585394493042854</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1251,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1259,10 +1397,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.05962498757457797</v>
+        <v>0.1497293551975221</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1270,10 +1408,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03164520029867982</v>
+        <v>0.03228212558650227</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1284,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1292,10 +1430,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006539273096322735</v>
+        <v>0.006670889529769634</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1303,10 +1441,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01550338087019338</v>
+        <v>0.01581541856405436</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1317,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1328,7 +1466,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1336,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.2309672889457021</v>
+        <v>0.4684365026631156</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1350,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1361,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1372,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1380,10 +1518,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.003828203602788004</v>
+        <v>0.00858109105185057</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1391,10 +1529,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.03030478641506235</v>
+        <v>0.05655455370318329</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1402,10 +1540,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.00177673915495655</v>
+        <v>0.003451501286304404</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1416,7 +1554,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1427,7 +1565,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1438,7 +1576,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1449,7 +1587,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1460,7 +1598,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1471,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1482,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1490,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1498,10 +1636,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>38665.66733546524</v>
+        <v>92898.03941014908</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1509,10 +1647,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>8995.364690226945</v>
+        <v>18243.95651394513</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1520,10 +1658,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>374.8068620927893</v>
+        <v>760.1648547477139</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1534,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1545,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1553,10 +1691,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>95618085.40276001</v>
+        <v>235377216.3137182</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1567,7 +1705,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1578,7 +1716,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1589,151 +1727,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>4.465918745023425</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>5988.886355451313</v>
-      </c>
-      <c r="E51">
-        <v>13217913.07914349</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>42.68427837253996</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>4.438041062389925</v>
+        <v>3.770626467820416</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>5951.501825486138</v>
+        <v>5056.485505876534</v>
       </c>
       <c r="E52">
-        <v>13176603.91562531</v>
+        <v>12191264.80375407</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>42.4178295556564</v>
+        <v>36.03882627077881</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1741,25 +1864,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>4.41044657060518</v>
+        <v>3.751387846763407</v>
       </c>
       <c r="C53">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>5030.686130266664</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>12162965.33214601</v>
       </c>
       <c r="F53">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>42.15408741520627</v>
+        <v>35.85494772224582</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1767,25 +1890,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>4.973916965676891</v>
+        <v>3.732357560495509</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>6670.122129312024</v>
+        <v>5005.166135775688</v>
       </c>
       <c r="E54">
-        <v>13972798.15944622</v>
+        <v>12134978.02167649</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>47.53961468766897</v>
+        <v>35.67306039223713</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1793,25 +1916,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>2.91906070311209</v>
+        <v>3.713514413553713</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>3914.518784087375</v>
+        <v>4979.8970988638</v>
       </c>
       <c r="E55">
-        <v>10944189.28116571</v>
+        <v>12107271.52378972</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>27.89974622284023</v>
+        <v>35.49296169913517</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1819,25 +1942,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>2.615694828606844</v>
+        <v>3.69481062475472</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>3507.69907905835</v>
+        <v>4954.814944008574</v>
       </c>
       <c r="E56">
-        <v>10502670.49139979</v>
+        <v>12079775.43746978</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>25.00024128882401</v>
+        <v>35.31419496080006</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1845,25 +1968,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>2.604326753292288</v>
+        <v>3.676284767251533</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D57">
-        <v>3492.454262700024</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10486153.42658651</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>24.89158770173687</v>
+        <v>35.13712885102428</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1871,25 +1994,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>2.59303764091459</v>
+        <v>4.13666778067909</v>
       </c>
       <c r="C58">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>5547.354227246274</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>12730806.36114193</v>
       </c>
       <c r="F58">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>24.78368882519651</v>
+        <v>39.53736938944178</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1897,25 +2020,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
-        <v>3.417987827066074</v>
+        <v>4.113139631243532</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>4583.590035852147</v>
+        <v>5515.8025082902</v>
       </c>
       <c r="E59">
-        <v>11673464.50491796</v>
+        <v>12696062.93763877</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>32.66838297204085</v>
+        <v>39.31249246322872</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -1923,25 +2046,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
-        <v>3.398081209465829</v>
+        <v>2.693800467999975</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4556.894863517866</v>
+        <v>3612.440303597327</v>
       </c>
       <c r="E60">
-        <v>11644292.54447503</v>
+        <v>10616207.60117437</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>32.47811985808441</v>
+        <v>25.74675797322108</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -1949,27 +2072,365 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
-        <v>3.378324045875689</v>
+        <v>2.206782121629444</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2959.338960747517</v>
+      </c>
+      <c r="E61">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>21.0919427255906</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>2.198898983765017</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2948.767515208563</v>
+      </c>
+      <c r="E62">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>21.01659741138637</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63">
+        <v>2.191064346572114</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2938.261110040136</v>
+      </c>
+      <c r="E63">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>20.94171565603371</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64">
+        <v>2.18327999027988</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2927.822132565125</v>
+      </c>
+      <c r="E64">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>20.86731447457491</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65">
+        <v>2.175538862312408</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2917.441125138185</v>
+      </c>
+      <c r="E65">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>20.79332646002601</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <v>2.167847183297554</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>2907.126429745686</v>
+      </c>
+      <c r="E66">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>20.71981106779274</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67">
+        <v>2.16020232519355</v>
+      </c>
+      <c r="C67">
         <v>12.5</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>16916025.69007904</v>
       </c>
-      <c r="G61">
-        <v>32.28928519299493</v>
-      </c>
-      <c r="H61">
+      <c r="G67">
+        <v>20.6467431796245</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68">
+        <v>4.528405105979122</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>6072.681815220121</v>
+      </c>
+      <c r="E68">
+        <v>13310549.64341423</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>43.28150939661361</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69">
+        <v>4.492756521807381</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>6024.876350874134</v>
+      </c>
+      <c r="E69">
+        <v>13257692.81597886</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>42.94078799587851</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
+        <v>4.457609078970145</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>5977.742927080543</v>
+      </c>
+      <c r="E70">
+        <v>13205598.53787593</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>42.60485639483465</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>4.422952460719306</v>
+      </c>
+      <c r="C71">
+        <v>12.5</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G71">
+        <v>42.27361598825131</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>4.388776631912977</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>5885.437238927941</v>
+      </c>
+      <c r="E72">
+        <v>13103633.63747904</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>41.94697086242873</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>4.355071829415157</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>5840.238424682313</v>
+      </c>
+      <c r="E73">
+        <v>13053732.13061269</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>41.62482770344008</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
+        <v>4.321828552887912</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>5795.658525993748</v>
+      </c>
+      <c r="E74">
+        <v>13004531.37311167</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>41.30709570912527</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +2441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,58 +2449,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2047,55 +2508,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F2">
-        <v>100.572603888166</v>
+        <v>102.3070543240509</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>23.33333333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M2">
-        <v>14.49865666666666</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>5334313.497156512</v>
+        <v>4228996.1470012</v>
       </c>
       <c r="P2">
-        <v>15.12590616200351</v>
+        <v>19.31239189352126</v>
       </c>
       <c r="Q2">
-        <v>0.02501935037952173</v>
+        <v>0.03215433138975233</v>
       </c>
       <c r="R2">
-        <v>26.89026270029759</v>
+        <v>30.12510545898304</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2103,55 +2564,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F3">
-        <v>100.3809450691429</v>
+        <v>102.1439966450555</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>16.66666666666667</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M3">
-        <v>10.35618333333334</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N3">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O3">
-        <v>5560136.109053169</v>
+        <v>4230612.048529098</v>
       </c>
       <c r="P3">
-        <v>14.4969286679008</v>
+        <v>19.27422315486537</v>
       </c>
       <c r="Q3">
-        <v>0.02394947983043473</v>
+        <v>0.03209044666692567</v>
       </c>
       <c r="R3">
-        <v>26.34979989504671</v>
+        <v>30.119483410628</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2159,55 +2620,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F4">
-        <v>100.3809464506154</v>
+        <v>101.9825829046852</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>6.666666666666664</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M4">
-        <v>4.142473333333332</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N4">
-        <v>5560136.109053169</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>5337305.264687962</v>
+        <v>4232212.629004964</v>
       </c>
       <c r="P4">
-        <v>15.08943936579411</v>
+        <v>19.2366234122889</v>
       </c>
       <c r="Q4">
-        <v>0.02495861990369886</v>
+        <v>0.03202751388524306</v>
       </c>
       <c r="R4">
-        <v>26.88288098174641</v>
+        <v>30.11391778465512</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2215,223 +2676,223 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F5">
-        <v>100.1898036525209</v>
+        <v>101.8221058637592</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>23.33333333333334</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>14.49865666666667</v>
+        <v>3.106855</v>
       </c>
       <c r="N5">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O5">
-        <v>5340276.955100394</v>
+        <v>4517808.533987975</v>
       </c>
       <c r="P5">
-        <v>15.0524385454798</v>
+        <v>18.01857198917413</v>
       </c>
       <c r="Q5">
-        <v>0.02489701102672127</v>
+        <v>0.02994561518291414</v>
       </c>
       <c r="R5">
-        <v>26.87555488570606</v>
+        <v>29.16789137528084</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F6">
-        <v>100.0001587340836</v>
+        <v>101.8221058483926</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M6">
-        <v>16.155646</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N6">
-        <v>6082278.702557526</v>
+        <v>4517808.533987975</v>
       </c>
       <c r="O6">
-        <v>5252280.166313887</v>
+        <v>4233799.833955843</v>
       </c>
       <c r="P6">
-        <v>15.27039500563512</v>
+        <v>19.19931375696572</v>
       </c>
       <c r="Q6">
-        <v>0.02526982665282841</v>
+        <v>0.03196506823388644</v>
       </c>
       <c r="R6">
-        <v>27.09509484189896</v>
+        <v>30.10840172967846</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F7">
-        <v>99.78631879132969</v>
+        <v>101.6624531184191</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>5.5</v>
+        <v>11.66666666666666</v>
       </c>
       <c r="M7">
-        <v>3.4175405</v>
+        <v>7.24932833333333</v>
       </c>
       <c r="N7">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>5916929.11064243</v>
+        <v>4235379.305869665</v>
       </c>
       <c r="P7">
-        <v>13.55936641277448</v>
+        <v>19.16222449843581</v>
       </c>
       <c r="Q7">
-        <v>0.02235826301254394</v>
+        <v>0.03190299248871253</v>
       </c>
       <c r="R7">
-        <v>25.55936671062639</v>
+        <v>30.10291557256902</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F8">
-        <v>82.12798881050735</v>
+        <v>101.50360589975</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>20.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M8">
-        <v>12.7381055</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N8">
-        <v>5916929.11064243</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O8">
-        <v>5474108.041461969</v>
+        <v>4236946.182888924</v>
       </c>
       <c r="P8">
-        <v>12.04333026547464</v>
+        <v>19.12536998080939</v>
       </c>
       <c r="Q8">
-        <v>0.01990530627841268</v>
+        <v>0.03184131150799099</v>
       </c>
       <c r="R8">
-        <v>26.55177722124039</v>
+        <v>30.097476139701</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2439,55 +2900,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F9">
-        <v>82.00249266633055</v>
+        <v>101.3455552604749</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>16.155646</v>
+        <v>8.077823</v>
       </c>
       <c r="N9">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5532914.681401092</v>
+        <v>4180046.725947963</v>
       </c>
       <c r="P9">
-        <v>11.8997399080953</v>
+        <v>19.34951157296338</v>
       </c>
       <c r="Q9">
-        <v>0.01966171255815815</v>
+        <v>0.03222638365552173</v>
       </c>
       <c r="R9">
-        <v>26.41320482199134</v>
+        <v>30.29692429888627</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2495,55 +2956,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F10">
-        <v>81.89003885820946</v>
+        <v>101.1677118683601</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>1.242742</v>
+        <v>8.077823</v>
       </c>
       <c r="N10">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O10">
-        <v>6041866.713199652</v>
+        <v>4182020.431595312</v>
       </c>
       <c r="P10">
-        <v>10.90215753583258</v>
+        <v>19.30665093070629</v>
       </c>
       <c r="Q10">
-        <v>0.01796508877210098</v>
+        <v>0.0321545854671294</v>
       </c>
       <c r="R10">
-        <v>25.29918784188091</v>
+        <v>30.28993909163358</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2551,55 +3012,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F11">
-        <v>81.89003885820871</v>
+        <v>100.9908799976133</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>14.912904</v>
+        <v>3.4175405</v>
       </c>
       <c r="N11">
-        <v>6041866.713199652</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>5534458.005586898</v>
+        <v>4500754.854975943</v>
       </c>
       <c r="P11">
-        <v>11.88017570734258</v>
+        <v>17.93769953714449</v>
       </c>
       <c r="Q11">
-        <v>0.0196292233340063</v>
+        <v>0.02981434096926472</v>
       </c>
       <c r="R11">
-        <v>26.40959765841477</v>
+        <v>29.22188221464978</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2607,391 +3068,951 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F12">
-        <v>81.77807378696438</v>
+        <v>83.33255002174172</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="M12">
-        <v>16.155646</v>
+        <v>4.6602825</v>
       </c>
       <c r="N12">
-        <v>6082278.702557526</v>
+        <v>4500754.854975943</v>
       </c>
       <c r="O12">
-        <v>5535993.49490556</v>
+        <v>4285842.114645996</v>
       </c>
       <c r="P12">
-        <v>11.86070953234112</v>
+        <v>15.52649236098289</v>
       </c>
       <c r="Q12">
-        <v>0.01959689746778685</v>
+        <v>0.02584151286148962</v>
       </c>
       <c r="R12">
-        <v>26.40601029255876</v>
+        <v>29.92920856652562</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F13">
-        <v>81.66659405663488</v>
+        <v>83.21673830154236</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>33.33333333333334</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>20.71236666666667</v>
+        <v>8.077823</v>
       </c>
       <c r="N13">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5374113.017314901</v>
+        <v>4360085.4169081</v>
       </c>
       <c r="P13">
-        <v>12.19386032249079</v>
+        <v>15.24680754573536</v>
       </c>
       <c r="Q13">
-        <v>0.02016511591721067</v>
+        <v>0.02536404584909817</v>
       </c>
       <c r="R13">
-        <v>26.79256406261921</v>
+        <v>29.67905072224767</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F14">
-        <v>81.5196481136922</v>
+        <v>83.12186444705873</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>16.66666666666666</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>10.35618333333333</v>
+        <v>8.077823</v>
       </c>
       <c r="N14">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O14">
-        <v>5740144.33615881</v>
+        <v>4360919.713195967</v>
       </c>
       <c r="P14">
-        <v>11.41123450952396</v>
+        <v>15.22657678124351</v>
       </c>
       <c r="Q14">
-        <v>0.01883367237289536</v>
+        <v>0.02533025722938453</v>
       </c>
       <c r="R14">
-        <v>25.94185685947693</v>
+        <v>29.67627534738589</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F15">
-        <v>81.51964811369223</v>
+        <v>83.02732950400063</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>16.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>10.35618333333334</v>
+        <v>8.077823</v>
       </c>
       <c r="N15">
-        <v>5740144.33615881</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>5376757.783633358</v>
+        <v>4361749.954346891</v>
       </c>
       <c r="P15">
-        <v>12.16605584414618</v>
+        <v>15.20642947844147</v>
       </c>
       <c r="Q15">
-        <v>0.02011884319653758</v>
+        <v>0.02529660847462048</v>
       </c>
       <c r="R15">
-        <v>26.78610989108766</v>
+        <v>29.6735142395424</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F16">
-        <v>81.37355799494847</v>
+        <v>82.93313138722979</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>33.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>20.71236666666666</v>
+        <v>1.242742</v>
       </c>
       <c r="N16">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O16">
-        <v>5379391.749373009</v>
+        <v>4666625.685648637</v>
       </c>
       <c r="P16">
-        <v>12.13842972231249</v>
+        <v>14.21798648630459</v>
       </c>
       <c r="Q16">
-        <v>0.02007286802855801</v>
+        <v>0.02360794901931006</v>
       </c>
       <c r="R16">
-        <v>26.77968676604528</v>
+        <v>28.70918793367365</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F17">
-        <v>81.22831727508515</v>
+        <v>82.93313138722962</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17">
         <v>9.525</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>31.06855</v>
+        <v>6.835081</v>
       </c>
       <c r="N17">
-        <v>6082278.702557526</v>
+        <v>4666625.685648637</v>
       </c>
       <c r="O17">
-        <v>4996023.795444581</v>
+        <v>4362575.826650595</v>
       </c>
       <c r="P17">
-        <v>13.02647842477887</v>
+        <v>15.18636622145513</v>
       </c>
       <c r="Q17">
-        <v>0.02158776873169862</v>
+        <v>0.02526310060140179</v>
       </c>
       <c r="R17">
-        <v>27.76678999119345</v>
+        <v>29.67076842985918</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F18">
-        <v>81.22831727508515</v>
+        <v>82.83926793507251</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>31.06855</v>
+        <v>8.077823</v>
       </c>
       <c r="N18">
-        <v>4996023.795444581</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O18">
-        <v>3604355.286301082</v>
+        <v>4363398.393387475</v>
       </c>
       <c r="P18">
-        <v>17.92073178477368</v>
+        <v>15.16638289604282</v>
       </c>
       <c r="Q18">
-        <v>0.02996651184215335</v>
+        <v>0.02522972659090819</v>
       </c>
       <c r="R18">
-        <v>32.5679208032756</v>
+        <v>29.66803437216216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19">
+        <v>82.74573728905925</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>8.077823</v>
+      </c>
+      <c r="N19">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O19">
+        <v>4364216.650330873</v>
+      </c>
+      <c r="P19">
+        <v>15.14648248044141</v>
+      </c>
+      <c r="Q19">
+        <v>0.02519649155268741</v>
+      </c>
+      <c r="R19">
+        <v>29.66531539341196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20">
+        <v>82.65253732328325</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>8.077823</v>
+      </c>
+      <c r="N20">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O20">
+        <v>4365030.971922388</v>
+      </c>
+      <c r="P20">
+        <v>15.12666321380865</v>
+      </c>
+      <c r="Q20">
+        <v>0.02516339249287598</v>
+      </c>
+      <c r="R20">
+        <v>29.66261023767038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <v>82.55966602482256</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>15.534275</v>
+      </c>
+      <c r="N21">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O21">
+        <v>4012111.291410397</v>
+      </c>
+      <c r="P21">
+        <v>16.40682185098374</v>
+      </c>
+      <c r="Q21">
+        <v>0.02735585834598879</v>
+      </c>
+      <c r="R21">
+        <v>30.90965509872817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22">
+        <v>82.36498108385956</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>15.534275</v>
+      </c>
+      <c r="N22">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O22">
+        <v>4015651.527973626</v>
+      </c>
+      <c r="P22">
+        <v>16.35404503534838</v>
+      </c>
+      <c r="Q22">
+        <v>0.02726720910957668</v>
+      </c>
+      <c r="R22">
+        <v>30.89635060527717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23">
+        <v>82.17182874484857</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>15.534275</v>
+      </c>
+      <c r="N23">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O23">
+        <v>4019152.872311133</v>
+      </c>
+      <c r="P23">
+        <v>16.30181710941141</v>
+      </c>
+      <c r="Q23">
+        <v>0.02717948686365966</v>
+      </c>
+      <c r="R23">
+        <v>30.88320922202243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24">
+        <v>81.98018746274916</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>15.534275</v>
+      </c>
+      <c r="N24">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O24">
+        <v>4022616.002075238</v>
+      </c>
+      <c r="P24">
+        <v>16.25012824887553</v>
+      </c>
+      <c r="Q24">
+        <v>0.02709267494913745</v>
+      </c>
+      <c r="R24">
+        <v>30.87022781358409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25">
+        <v>81.79003613605795</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15.534275</v>
+      </c>
+      <c r="N25">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O25">
+        <v>4026041.578587208</v>
+      </c>
+      <c r="P25">
+        <v>16.19896887885731</v>
+      </c>
+      <c r="Q25">
+        <v>0.02700675713117809</v>
+      </c>
+      <c r="R25">
+        <v>30.85740332706013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26">
+        <v>81.60135409470182</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>15.534275</v>
+      </c>
+      <c r="N26">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O26">
+        <v>4029430.247341765</v>
+      </c>
+      <c r="P26">
+        <v>16.14832966570856</v>
+      </c>
+      <c r="Q26">
+        <v>0.02692171758527013</v>
+      </c>
+      <c r="R26">
+        <v>30.84473278927087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27">
+        <v>81.41412108834383</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>15.534275</v>
+      </c>
+      <c r="N27">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O27">
+        <v>4032782.638492551</v>
+      </c>
+      <c r="P27">
+        <v>16.0982015091656</v>
+      </c>
+      <c r="Q27">
+        <v>0.02683754088383504</v>
+      </c>
+      <c r="R27">
+        <v>30.83221330411515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28">
+        <v>81.22831727508515</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>15.534275</v>
+      </c>
+      <c r="N28">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O28">
+        <v>4036099.367319417</v>
+      </c>
+      <c r="P28">
+        <v>16.04857553481103</v>
+      </c>
+      <c r="Q28">
+        <v>0.02675421198337363</v>
+      </c>
+      <c r="R28">
+        <v>30.81984205003267</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +4022,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3009,58 +4030,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3068,40 +4089,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F2">
-        <v>23.33333333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="G2">
-        <v>14.49865666666667</v>
+        <v>7.249328333333333</v>
       </c>
       <c r="H2">
-        <v>1.140217706702038</v>
+        <v>1.116068236792201</v>
       </c>
       <c r="I2">
-        <v>42.68427837253996</v>
+        <v>36.03882627077881</v>
       </c>
       <c r="J2">
-        <v>4.465918745023425</v>
+        <v>3.770626467820416</v>
       </c>
       <c r="K2">
-        <v>5988.886355451313</v>
+        <v>5056.485505876534</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.465918745023425</v>
+        <v>3.770626467820416</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -3110,13 +4131,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>13217913.07914349</v>
+        <v>12191264.80375407</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>13217913.07914349</v>
+        <v>12191264.80375407</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3124,40 +4145,40 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F3">
-        <v>46.66666666666666</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G3">
-        <v>28.99731333333333</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="H3">
-        <v>1.139578570256861</v>
+        <v>1.115641949449286</v>
       </c>
       <c r="I3">
-        <v>42.4178295556564</v>
+        <v>35.85494772224582</v>
       </c>
       <c r="J3">
-        <v>4.438041062389925</v>
+        <v>3.751387846763407</v>
       </c>
       <c r="K3">
-        <v>5951.501825486138</v>
+        <v>5030.686130266664</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.438041062389925</v>
+        <v>3.751387846763407</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -3166,51 +4187,54 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>13176603.91562531</v>
+        <v>12162965.33214601</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>13176603.91562531</v>
+        <v>12162965.33214601</v>
       </c>
     </row>
     <row r="4" spans="1:18">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>43.49597</v>
+        <v>21.747985</v>
       </c>
       <c r="H4">
-        <v>1.138944431851696</v>
+        <v>1.115220024825247</v>
       </c>
       <c r="I4">
-        <v>42.15408741520627</v>
+        <v>35.67306039223713</v>
       </c>
       <c r="J4">
-        <v>4.41044657060518</v>
+        <v>3.732357560495509</v>
       </c>
       <c r="K4">
-        <v>5914.497060112959</v>
+        <v>5005.166135775688</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.5</v>
+        <v>3.732357560495509</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -3219,54 +4243,54 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>12134978.02167649</v>
       </c>
       <c r="Q4">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
+        <v>12134978.02167649</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G5">
-        <v>59.651616</v>
+        <v>28.99731333333333</v>
       </c>
       <c r="H5">
-        <v>1.158026325702679</v>
+        <v>1.114801941114599</v>
       </c>
       <c r="I5">
-        <v>47.53961468766897</v>
+        <v>35.49296169913517</v>
       </c>
       <c r="J5">
-        <v>4.973916965676891</v>
+        <v>3.713514413553713</v>
       </c>
       <c r="K5">
-        <v>6670.122129312024</v>
+        <v>4979.8970988638</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.973916965676891</v>
+        <v>3.713514413553713</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -3275,54 +4299,54 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>13972798.15944622</v>
+        <v>12107271.52378972</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>13972798.15944622</v>
+        <v>12107271.52378972</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F6">
-        <v>122</v>
+        <v>58.33333333333333</v>
       </c>
       <c r="G6">
-        <v>75.80726199999999</v>
+        <v>36.24664166666666</v>
       </c>
       <c r="H6">
-        <v>1.111099499039689</v>
+        <v>1.114386205420508</v>
       </c>
       <c r="I6">
-        <v>27.89974622284023</v>
+        <v>35.31419496080006</v>
       </c>
       <c r="J6">
-        <v>2.91906070311209</v>
+        <v>3.69481062475472</v>
       </c>
       <c r="K6">
-        <v>3914.518784087375</v>
+        <v>4954.814944008574</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.91906070311209</v>
+        <v>3.69481062475472</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3331,54 +4355,51 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>10944189.28116571</v>
+        <v>12079775.43746978</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>10944189.28116571</v>
+        <v>12079775.43746978</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="F7">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>91.962908</v>
+        <v>43.49597</v>
       </c>
       <c r="H7">
-        <v>1.09929016671866</v>
+        <v>1.113974091114477</v>
       </c>
       <c r="I7">
-        <v>25.00024128882401</v>
+        <v>35.13712885102428</v>
       </c>
       <c r="J7">
-        <v>2.615694828606844</v>
+        <v>3.676284767251533</v>
       </c>
       <c r="K7">
-        <v>3507.69907905835</v>
+        <v>4929.971398579652</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.615694828606844</v>
+        <v>12.5</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3387,13 +4408,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>10502670.49139979</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R7">
-        <v>10502670.49139979</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3401,40 +4422,40 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F8">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>108.118554</v>
+        <v>51.573793</v>
       </c>
       <c r="H8">
-        <v>1.098983621597204</v>
+        <v>1.129137682573216</v>
       </c>
       <c r="I8">
-        <v>24.89158770173687</v>
+        <v>39.53736938944178</v>
       </c>
       <c r="J8">
-        <v>2.604326753292288</v>
+        <v>4.13666778067909</v>
       </c>
       <c r="K8">
-        <v>3492.454262700024</v>
+        <v>5547.354227246274</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.604326753292288</v>
+        <v>4.13666778067909</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3443,51 +4464,54 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>10486153.42658651</v>
+        <v>12730806.36114193</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>10486153.42658651</v>
+        <v>12730806.36114193</v>
       </c>
     </row>
     <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>124.2742</v>
+        <v>59.651616</v>
       </c>
       <c r="H9">
-        <v>1.098678802306158</v>
+        <v>1.12860478574567</v>
       </c>
       <c r="I9">
-        <v>24.78368882519651</v>
+        <v>39.31249246322872</v>
       </c>
       <c r="J9">
-        <v>2.59303764091459</v>
+        <v>4.113139631243532</v>
       </c>
       <c r="K9">
-        <v>3477.315337219284</v>
+        <v>5515.8025082902</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>4.113139631243532</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -3496,54 +4520,54 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12696062.93763877</v>
       </c>
       <c r="Q9">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16916025.69007904</v>
+        <v>12696062.93763877</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F10">
-        <v>233.3333333333333</v>
+        <v>109</v>
       </c>
       <c r="G10">
-        <v>144.9865666666667</v>
+        <v>67.729439</v>
       </c>
       <c r="H10">
-        <v>1.131773500661594</v>
+        <v>1.101265083250621</v>
       </c>
       <c r="I10">
-        <v>32.66838297204085</v>
+        <v>25.74675797322108</v>
       </c>
       <c r="J10">
-        <v>3.417987827066074</v>
+        <v>2.693800467999975</v>
       </c>
       <c r="K10">
-        <v>4583.590035852147</v>
+        <v>3612.440303597327</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.417987827066074</v>
+        <v>2.693800467999975</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -3552,54 +4576,54 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>11673464.50491796</v>
+        <v>10616207.60117437</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>11673464.50491796</v>
+        <v>10616207.60117437</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>266.6666666666667</v>
+        <v>122</v>
       </c>
       <c r="G11">
-        <v>165.6989333333333</v>
+        <v>75.80726199999999</v>
       </c>
       <c r="H11">
-        <v>1.131216794082067</v>
+        <v>1.082512800066119</v>
       </c>
       <c r="I11">
-        <v>32.47811985808441</v>
+        <v>21.0919427255906</v>
       </c>
       <c r="J11">
-        <v>3.398081209465829</v>
+        <v>2.206782121629444</v>
       </c>
       <c r="K11">
-        <v>4556.894863517866</v>
+        <v>2959.338960747517</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.398081209465829</v>
+        <v>2.206782121629444</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -3608,51 +4632,54 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>11644292.54447503</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>11644292.54447503</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>186.4113</v>
+        <v>83.885085</v>
       </c>
       <c r="H12">
-        <v>1.130662905014575</v>
+        <v>1.082305702373417</v>
       </c>
       <c r="I12">
-        <v>32.28928519299493</v>
+        <v>21.01659741138637</v>
       </c>
       <c r="J12">
-        <v>3.378324045875689</v>
+        <v>2.198898983765017</v>
       </c>
       <c r="K12">
-        <v>4530.400112000217</v>
+        <v>2948.767515208563</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.5</v>
+        <v>2.198898983765017</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -3661,13 +4688,679 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>9953691.026075777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13">
+        <v>148</v>
+      </c>
+      <c r="G13">
+        <v>91.962908</v>
+      </c>
+      <c r="H13">
+        <v>1.082099689937721</v>
+      </c>
+      <c r="I13">
+        <v>20.94171565603371</v>
+      </c>
+      <c r="J13">
+        <v>2.191064346572114</v>
+      </c>
+      <c r="K13">
+        <v>2938.261110040136</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.191064346572114</v>
+      </c>
+      <c r="N13">
+        <v>0.78</v>
+      </c>
+      <c r="O13">
+        <v>0.357</v>
+      </c>
+      <c r="P13">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>9953691.026075777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14">
+        <v>161</v>
+      </c>
+      <c r="G14">
+        <v>100.040731</v>
+      </c>
+      <c r="H14">
+        <v>1.081894839363364</v>
+      </c>
+      <c r="I14">
+        <v>20.86731447457491</v>
+      </c>
+      <c r="J14">
+        <v>2.18327999027988</v>
+      </c>
+      <c r="K14">
+        <v>2927.822132565125</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.18327999027988</v>
+      </c>
+      <c r="N14">
+        <v>0.78</v>
+      </c>
+      <c r="O14">
+        <v>0.357</v>
+      </c>
+      <c r="P14">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>9953691.026075777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15">
+        <v>174</v>
+      </c>
+      <c r="G15">
+        <v>108.118554</v>
+      </c>
+      <c r="H15">
+        <v>1.081690885786947</v>
+      </c>
+      <c r="I15">
+        <v>20.79332646002601</v>
+      </c>
+      <c r="J15">
+        <v>2.175538862312408</v>
+      </c>
+      <c r="K15">
+        <v>2917.441125138185</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2.175538862312408</v>
+      </c>
+      <c r="N15">
+        <v>0.78</v>
+      </c>
+      <c r="O15">
+        <v>0.357</v>
+      </c>
+      <c r="P15">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>9953691.026075777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16">
+        <v>187</v>
+      </c>
+      <c r="G16">
+        <v>116.196377</v>
+      </c>
+      <c r="H16">
+        <v>1.081488077093241</v>
+      </c>
+      <c r="I16">
+        <v>20.71981106779274</v>
+      </c>
+      <c r="J16">
+        <v>2.167847183297554</v>
+      </c>
+      <c r="K16">
+        <v>2907.126429745686</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2.167847183297554</v>
+      </c>
+      <c r="N16">
+        <v>0.78</v>
+      </c>
+      <c r="O16">
+        <v>0.357</v>
+      </c>
+      <c r="P16">
+        <v>9953691.026075777</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>9953691.026075777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>124.2742</v>
+      </c>
+      <c r="H17">
+        <v>1.08128631928263</v>
+      </c>
+      <c r="I17">
+        <v>20.6467431796245</v>
+      </c>
+      <c r="J17">
+        <v>2.16020232519355</v>
+      </c>
+      <c r="K17">
+        <v>2896.874522131055</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>12.5</v>
+      </c>
+      <c r="N17">
+        <v>0.78</v>
+      </c>
+      <c r="O17">
+        <v>0.357</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>16916025.69007904</v>
       </c>
-      <c r="R12">
+      <c r="R17">
         <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18">
+        <v>225</v>
+      </c>
+      <c r="G18">
+        <v>139.808475</v>
+      </c>
+      <c r="H18">
+        <v>1.176400137077316</v>
+      </c>
+      <c r="I18">
+        <v>43.28150939661361</v>
+      </c>
+      <c r="J18">
+        <v>4.528405105979122</v>
+      </c>
+      <c r="K18">
+        <v>6072.681815220121</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.528405105979122</v>
+      </c>
+      <c r="N18">
+        <v>0.78</v>
+      </c>
+      <c r="O18">
+        <v>0.357</v>
+      </c>
+      <c r="P18">
+        <v>13310549.64341423</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13310549.64341423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+      <c r="G19">
+        <v>155.34275</v>
+      </c>
+      <c r="H19">
+        <v>1.175363011532618</v>
+      </c>
+      <c r="I19">
+        <v>42.94078799587851</v>
+      </c>
+      <c r="J19">
+        <v>4.492756521807381</v>
+      </c>
+      <c r="K19">
+        <v>6024.876350874134</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.492756521807381</v>
+      </c>
+      <c r="N19">
+        <v>0.78</v>
+      </c>
+      <c r="O19">
+        <v>0.357</v>
+      </c>
+      <c r="P19">
+        <v>13257692.81597886</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13257692.81597886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20">
+        <v>275</v>
+      </c>
+      <c r="G20">
+        <v>170.877025</v>
+      </c>
+      <c r="H20">
+        <v>1.174339076699659</v>
+      </c>
+      <c r="I20">
+        <v>42.60485639483465</v>
+      </c>
+      <c r="J20">
+        <v>4.457609078970145</v>
+      </c>
+      <c r="K20">
+        <v>5977.742927080543</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.457609078970145</v>
+      </c>
+      <c r="N20">
+        <v>0.78</v>
+      </c>
+      <c r="O20">
+        <v>0.357</v>
+      </c>
+      <c r="P20">
+        <v>13205598.53787593</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>13205598.53787593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>186.4113</v>
+      </c>
+      <c r="H21">
+        <v>1.173328070775263</v>
+      </c>
+      <c r="I21">
+        <v>42.27361598825131</v>
+      </c>
+      <c r="J21">
+        <v>4.422952460719306</v>
+      </c>
+      <c r="K21">
+        <v>5931.267708873804</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.5</v>
+      </c>
+      <c r="N21">
+        <v>0.78</v>
+      </c>
+      <c r="O21">
+        <v>0.357</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="R21">
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22">
+        <v>325</v>
+      </c>
+      <c r="G22">
+        <v>201.945575</v>
+      </c>
+      <c r="H22">
+        <v>1.172329739038835</v>
+      </c>
+      <c r="I22">
+        <v>41.94697086242873</v>
+      </c>
+      <c r="J22">
+        <v>4.388776631912977</v>
+      </c>
+      <c r="K22">
+        <v>5885.437238927941</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4.388776631912977</v>
+      </c>
+      <c r="N22">
+        <v>0.78</v>
+      </c>
+      <c r="O22">
+        <v>0.357</v>
+      </c>
+      <c r="P22">
+        <v>13103633.63747904</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13103633.63747904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23">
+        <v>350</v>
+      </c>
+      <c r="G23">
+        <v>217.47985</v>
+      </c>
+      <c r="H23">
+        <v>1.171343833609813</v>
+      </c>
+      <c r="I23">
+        <v>41.62482770344008</v>
+      </c>
+      <c r="J23">
+        <v>4.355071829415157</v>
+      </c>
+      <c r="K23">
+        <v>5840.238424682313</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4.355071829415157</v>
+      </c>
+      <c r="N23">
+        <v>0.78</v>
+      </c>
+      <c r="O23">
+        <v>0.357</v>
+      </c>
+      <c r="P23">
+        <v>13053732.13061269</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13053732.13061269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24">
+        <v>375</v>
+      </c>
+      <c r="G24">
+        <v>233.014125</v>
+      </c>
+      <c r="H24">
+        <v>1.170370113215155</v>
+      </c>
+      <c r="I24">
+        <v>41.30709570912527</v>
+      </c>
+      <c r="J24">
+        <v>4.321828552887912</v>
+      </c>
+      <c r="K24">
+        <v>5795.658525993748</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.321828552887912</v>
+      </c>
+      <c r="N24">
+        <v>0.78</v>
+      </c>
+      <c r="O24">
+        <v>0.357</v>
+      </c>
+      <c r="P24">
+        <v>13004531.37311167</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>13004531.37311167</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +5370,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3685,242 +5378,418 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B3">
-        <v>5334313.497156512</v>
+        <v>4228996.1470012</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B4">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B5">
-        <v>5560136.109053169</v>
+        <v>4230612.048529098</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B6">
-        <v>5337305.264687962</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B7">
-        <v>6082278.702557526</v>
+        <v>4232212.629004964</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>5340276.955100394</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B9">
-        <v>6082278.702557526</v>
+        <v>4517808.533987975</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B10">
-        <v>5252280.166313887</v>
+        <v>4233799.833955843</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="B12">
-        <v>5916929.11064243</v>
+        <v>4235379.305869665</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B13">
-        <v>5474108.041461969</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B14">
-        <v>6082278.702557526</v>
+        <v>4236946.182888924</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B15">
-        <v>5532914.681401092</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B16">
-        <v>6082278.702557526</v>
+        <v>4180046.725947963</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B17">
-        <v>6041866.713199652</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B18">
-        <v>5534458.005586898</v>
+        <v>4182020.431595312</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B19">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B20">
-        <v>5535993.49490556</v>
+        <v>4500754.854975943</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B21">
-        <v>6082278.702557526</v>
+        <v>4285842.114645996</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B22">
-        <v>5374113.017314901</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B23">
-        <v>6082278.702557526</v>
+        <v>4360085.4169081</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B24">
-        <v>5740144.33615881</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B25">
-        <v>5376757.783633358</v>
+        <v>4360919.713195967</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B26">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B27">
-        <v>5379391.749373009</v>
+        <v>4361749.954346891</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B28">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B29">
-        <v>4996023.795444581</v>
+        <v>4666625.685648637</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B30">
-        <v>3604355.286301082</v>
+        <v>4362575.826650595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32">
+        <v>4363398.393387475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <v>4364216.650330873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36">
+        <v>4365030.971922388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>4012111.291410397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40">
+        <v>4015651.527973626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42">
+        <v>4019152.872311133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>4022616.002075238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>4026041.578587208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>4029430.247341765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50">
+        <v>4032782.638492551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52">
+        <v>4036099.367319417</v>
       </c>
     </row>
   </sheetData>
@@ -3938,36 +5807,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65832998082234</v>
+        <v>17.65832997587161</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3976,15 +5845,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400322553</v>
+        <v>1150.52039999999</v>
       </c>
       <c r="G2">
-        <v>2.803537265687356E-08</v>
+        <v>-8.85244539437285E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
@@ -4007,7 +5876,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="279">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -378,6 +378,9 @@
     <t>C_1_8</t>
   </si>
   <si>
+    <t>C_1_9</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -450,10 +453,16 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_pre_C_0_1</t>
+    <t>PI01_0_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_0_remaining</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
   </si>
   <si>
     <t>PI01_pre_C_0_2</t>
@@ -462,7 +471,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_3</t>
+    <t>PI02_0_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
   </si>
   <si>
     <t>PI02_pre_C_0_4</t>
@@ -471,7 +483,10 @@
     <t>PI02_remaining</t>
   </si>
   <si>
-    <t>PI03_pre_C_1_0</t>
+    <t>PI03_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_0_remaining</t>
   </si>
   <si>
     <t>PI03_pre_C_1_1</t>
@@ -480,13 +495,19 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_4</t>
+    <t>PI04_0_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>PI04_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_5</t>
@@ -495,40 +516,73 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_6</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_7</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_8</t>
+    <t>PI05_0_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_9</t>
   </si>
   <si>
     <t>PI05_remaining</t>
   </si>
   <si>
-    <t>PI06_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>PI06_remaining</t>
-  </si>
-  <si>
-    <t>PI07_pre_C_2_2</t>
-  </si>
-  <si>
-    <t>PI07_remaining</t>
-  </si>
-  <si>
-    <t>PI08_pre_C_3_0</t>
-  </si>
-  <si>
-    <t>PI08_remaining</t>
-  </si>
-  <si>
-    <t>PI09_pre_C_3_2</t>
-  </si>
-  <si>
-    <t>PI09_remaining</t>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1_pre_C_2_0</t>
+  </si>
+  <si>
+    <t>PI06_1_remaining</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>PI07_1_remaining</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_1_remaining</t>
+  </si>
+  <si>
+    <t>PI08</t>
+  </si>
+  <si>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_1_remaining</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
@@ -537,9 +591,15 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_2</t>
   </si>
   <si>
@@ -549,6 +609,9 @@
     <t>N_post_C_0_3</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_4</t>
   </si>
   <si>
@@ -558,6 +621,9 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
@@ -570,9 +636,15 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_4</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_5</t>
   </si>
   <si>
@@ -585,33 +657,66 @@
     <t>N_post_C_1_7</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_8</t>
   </si>
   <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N_post_C_1_9</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_1</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_2</t>
   </si>
   <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_1</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_2</t>
   </si>
   <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -655,6 +760,9 @@
   </si>
   <si>
     <t>N_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_9</t>
   </si>
   <si>
     <t>N06</t>
@@ -1353,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1483,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7585394493042854</v>
+        <v>0.7952170069803824</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1397,7 +1505,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.1497293551975221</v>
+        <v>0.1583445750742628</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1408,7 +1516,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03228212558650227</v>
+        <v>0.03229898434428223</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1430,7 +1538,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006670889529769634</v>
+        <v>0.006674373281496513</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1441,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01581541856405436</v>
+        <v>0.01582367788111964</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1474,7 +1582,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.4684365026631156</v>
+        <v>0.4935054437796491</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1518,7 +1626,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.00858109105185057</v>
+        <v>0.008964272234900716</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1529,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05655455370318329</v>
+        <v>0.05896294989798587</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1540,7 +1648,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003451501286304404</v>
+        <v>0.003624718764702249</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1628,7 +1736,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1636,7 +1744,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>92898.03941014908</v>
+        <v>98102.37998896508</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1647,7 +1755,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>18243.95651394513</v>
+        <v>19220.3037221165</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1658,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>760.1648547477139</v>
+        <v>800.8459884215208</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1691,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>235377216.3137182</v>
+        <v>248790569.1977327</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1765,7 +1873,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1841,22 +1949,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>3.770626467820416</v>
+        <v>3.984783723618233</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>5056.485505876534</v>
+        <v>5343.674669046522</v>
       </c>
       <c r="E52">
-        <v>12191264.80375407</v>
+        <v>12506675.77274331</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>36.03882627077881</v>
+        <v>38.08569466312465</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1867,22 +1975,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>3.751387846763407</v>
+        <v>3.963972405680329</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>5030.686130266664</v>
+        <v>5315.766275465435</v>
       </c>
       <c r="E53">
-        <v>12162965.33214601</v>
+        <v>12475993.31860835</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>35.85494772224582</v>
+        <v>37.88678462044848</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1893,22 +2001,22 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>3.732357560495509</v>
+        <v>3.943302449008111</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>5005.166135775688</v>
+        <v>5288.047450168857</v>
       </c>
       <c r="E54">
-        <v>12134978.02167649</v>
+        <v>12445525.99409463</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>35.67306039223713</v>
+        <v>37.68922567795127</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1919,22 +2027,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>3.713514413553713</v>
+        <v>3.92279344934181</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4979.8970988638</v>
+        <v>5260.544471436354</v>
       </c>
       <c r="E55">
-        <v>12107271.52378972</v>
+        <v>12415302.53629384</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>35.49296169913517</v>
+        <v>37.49320512744882</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1945,22 +2053,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>3.69481062475472</v>
+        <v>3.902438955786296</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4954.814944008574</v>
+        <v>5233.248688488538</v>
       </c>
       <c r="E56">
-        <v>12079775.43746978</v>
+        <v>12385313.28662439</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>35.31419496080006</v>
+        <v>37.29866131269092</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1971,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>3.676284767251533</v>
+        <v>3.88221965980898</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1986,7 +2094,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>35.13712885102428</v>
+        <v>37.10540968692987</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1997,22 +2105,22 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>4.13666778067909</v>
+        <v>3.916977767373811</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>5547.354227246274</v>
+        <v>5252.745525603627</v>
       </c>
       <c r="E58">
-        <v>12730806.36114193</v>
+        <v>12406733.35113453</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>39.53736938944178</v>
+        <v>37.4376201062648</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2023,22 +2131,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>4.113139631243532</v>
+        <v>3.896675845842932</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5515.8025082902</v>
+        <v>5225.520242792289</v>
       </c>
       <c r="E59">
-        <v>12696062.93763877</v>
+        <v>12376823.40030325</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>39.31249246322872</v>
+        <v>37.24357876346446</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2049,22 +2157,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>2.693800467999975</v>
+        <v>2.835985783307106</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>3612.440303597327</v>
+        <v>3803.113655130495</v>
       </c>
       <c r="E60">
-        <v>10616207.60117437</v>
+        <v>10823138.61767111</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>25.74675797322108</v>
+        <v>27.10573423892676</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2075,13 +2183,13 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>2.206782121629444</v>
+        <v>2.116270395524172</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2959.338960747517</v>
+        <v>2837.960925805825</v>
       </c>
       <c r="E61">
         <v>9953691.026075777</v>
@@ -2090,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>21.0919427255906</v>
+        <v>20.22685136732043</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2101,13 +2209,13 @@
         <v>112</v>
       </c>
       <c r="B62">
-        <v>2.198898983765017</v>
+        <v>2.109061500416896</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2948.767515208563</v>
+        <v>2828.293653289066</v>
       </c>
       <c r="E62">
         <v>9953691.026075777</v>
@@ -2116,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>21.01659741138637</v>
+        <v>20.15795031849139</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2127,13 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B63">
-        <v>2.191064346572114</v>
+        <v>2.1019127014274</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2938.261110040136</v>
+        <v>2818.706970868172</v>
       </c>
       <c r="E63">
         <v>9953691.026075777</v>
@@ -2142,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>20.94171565603371</v>
+        <v>20.0896236552629</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2153,13 +2261,13 @@
         <v>114</v>
       </c>
       <c r="B64">
-        <v>2.18327999027988</v>
+        <v>2.094768760207821</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2927.822132565125</v>
+        <v>2809.126802813892</v>
       </c>
       <c r="E64">
         <v>9953691.026075777</v>
@@ -2168,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>20.86731447457491</v>
+        <v>20.02134342154093</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2179,13 +2287,13 @@
         <v>115</v>
       </c>
       <c r="B65">
-        <v>2.175538862312408</v>
+        <v>2.087665669835559</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2917.441125138185</v>
+        <v>2799.601416562882</v>
       </c>
       <c r="E65">
         <v>9953691.026075777</v>
@@ -2194,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>20.79332646002601</v>
+        <v>19.95345363131741</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2205,13 +2313,13 @@
         <v>116</v>
       </c>
       <c r="B66">
-        <v>2.167847183297554</v>
+        <v>2.080632413896195</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2907.126429745686</v>
+        <v>2790.169679683076</v>
       </c>
       <c r="E66">
         <v>9953691.026075777</v>
@@ -2220,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>20.71981106779274</v>
+        <v>19.88623130338864</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2231,22 +2339,22 @@
         <v>117</v>
       </c>
       <c r="B67">
-        <v>2.16020232519355</v>
+        <v>2.073629831215724</v>
       </c>
       <c r="C67">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2780.77907625691</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F67">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>20.6467431796245</v>
+        <v>19.81930214378559</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2257,22 +2365,22 @@
         <v>118</v>
       </c>
       <c r="B68">
-        <v>4.528405105979122</v>
+        <v>2.066635615830844</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D68">
-        <v>6072.681815220121</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>13310549.64341423</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G68">
-        <v>43.28150939661361</v>
+        <v>19.7524529569708</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2283,22 +2391,22 @@
         <v>119</v>
       </c>
       <c r="B69">
-        <v>4.492756521807381</v>
+        <v>4.80660821951508</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>6024.876350874134</v>
+        <v>6445.757754534112</v>
       </c>
       <c r="E69">
-        <v>13257692.81597886</v>
+        <v>13723730.8144163</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>42.94078799587851</v>
+        <v>45.94051414351117</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2309,22 +2417,22 @@
         <v>120</v>
       </c>
       <c r="B70">
-        <v>4.457609078970145</v>
+        <v>4.765817931723653</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>5977.742927080543</v>
+        <v>6391.057162800053</v>
       </c>
       <c r="E70">
-        <v>13205598.53787593</v>
+        <v>13663074.09012518</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>42.60485639483465</v>
+        <v>45.55064945980518</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2335,22 +2443,22 @@
         <v>121</v>
       </c>
       <c r="B71">
-        <v>4.422952460719306</v>
+        <v>4.725670648042011</v>
       </c>
       <c r="C71">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>6337.218852437298</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>13603398.99923224</v>
       </c>
       <c r="F71">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>42.27361598825131</v>
+        <v>45.16693046928879</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2361,22 +2469,22 @@
         <v>122</v>
       </c>
       <c r="B72">
-        <v>4.388776631912977</v>
+        <v>4.686038287642569</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D72">
-        <v>5885.437238927941</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>13103633.63747904</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G72">
-        <v>41.94697086242873</v>
+        <v>44.78813300331705</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2387,22 +2495,22 @@
         <v>123</v>
       </c>
       <c r="B73">
-        <v>4.355071829415157</v>
+        <v>4.647018783510063</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>5840.238424682313</v>
+        <v>6231.745129062665</v>
       </c>
       <c r="E73">
-        <v>13053732.13061269</v>
+        <v>13486563.75308981</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>41.62482770344008</v>
+        <v>44.41519308402132</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2413,24 +2521,50 @@
         <v>124</v>
       </c>
       <c r="B74">
-        <v>4.321828552887912</v>
+        <v>4.608497794183321</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>5795.658525993748</v>
+        <v>6180.087711955716</v>
       </c>
       <c r="E74">
-        <v>13004531.37311167</v>
+        <v>13429377.21872473</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>41.30709570912527</v>
+        <v>44.04701786062734</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75">
+        <v>4.570561121208711</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>6129.213874763306</v>
+      </c>
+      <c r="E75">
+        <v>13373080.86214064</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>43.6844274056217</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2449,58 +2583,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2508,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F2">
-        <v>102.3070543240509</v>
+        <v>102.4882090100769</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2547,16 +2681,16 @@
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>4228996.1470012</v>
+        <v>4215363.528785638</v>
       </c>
       <c r="P2">
-        <v>19.31239189352126</v>
+        <v>17.92866114156495</v>
       </c>
       <c r="Q2">
-        <v>0.03215433138975233</v>
+        <v>0.02950040522764811</v>
       </c>
       <c r="R2">
-        <v>30.12510545898304</v>
+        <v>30.53340743745198</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2564,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F3">
-        <v>102.1439966450555</v>
+        <v>102.3175354415728</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2594,25 +2728,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>11.66666666666667</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="M3">
-        <v>7.249328333333335</v>
+        <v>1.035618333333334</v>
       </c>
       <c r="N3">
         <v>4719848.27318464</v>
       </c>
       <c r="O3">
-        <v>4230612.048529098</v>
+        <v>4651355.367264377</v>
       </c>
       <c r="P3">
-        <v>19.27422315486537</v>
+        <v>17.74582313216201</v>
       </c>
       <c r="Q3">
-        <v>0.03209044666692567</v>
+        <v>0.02915255516971851</v>
       </c>
       <c r="R3">
-        <v>30.119483410628</v>
+        <v>29.06677128448647</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2620,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F4">
-        <v>101.9825829046852</v>
+        <v>102.3175357530185</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2650,25 +2784,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>11.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="M4">
-        <v>7.249328333333335</v>
+        <v>6.213709999999999</v>
       </c>
       <c r="N4">
-        <v>4719848.27318464</v>
+        <v>4651355.367264377</v>
       </c>
       <c r="O4">
-        <v>4232212.629004964</v>
+        <v>4217106.914927895</v>
       </c>
       <c r="P4">
-        <v>19.2366234122889</v>
+        <v>17.78464262534786</v>
       </c>
       <c r="Q4">
-        <v>0.03202751388524306</v>
+        <v>0.02926324303264966</v>
       </c>
       <c r="R4">
-        <v>30.11391778465512</v>
+        <v>30.52709273110587</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2676,19 +2810,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F5">
-        <v>101.8221058637592</v>
+        <v>102.147197907504</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2706,25 +2840,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="M5">
-        <v>3.106855</v>
+        <v>2.071236666666668</v>
       </c>
       <c r="N5">
         <v>4719848.27318464</v>
       </c>
       <c r="O5">
-        <v>4517808.533987975</v>
+        <v>4582296.713969789</v>
       </c>
       <c r="P5">
-        <v>18.01857198917413</v>
+        <v>17.74210438397871</v>
       </c>
       <c r="Q5">
-        <v>0.02994561518291414</v>
+        <v>0.02915396650060045</v>
       </c>
       <c r="R5">
-        <v>29.16789137528084</v>
+        <v>29.2849046925862</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2732,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F6">
-        <v>101.8221058483926</v>
+        <v>102.1471979453405</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2762,25 +2896,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>6.666666666666664</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M6">
-        <v>4.142473333333332</v>
+        <v>5.178091666666666</v>
       </c>
       <c r="N6">
-        <v>4517808.533987975</v>
+        <v>4582296.713969789</v>
       </c>
       <c r="O6">
-        <v>4233799.833955843</v>
+        <v>4218842.598709397</v>
       </c>
       <c r="P6">
-        <v>19.19931375696572</v>
+        <v>17.77452394031071</v>
       </c>
       <c r="Q6">
-        <v>0.03196506823388644</v>
+        <v>0.02924640506297461</v>
       </c>
       <c r="R6">
-        <v>30.10840172967846</v>
+        <v>30.52080981378644</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2788,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F7">
-        <v>101.6624531184191</v>
+        <v>101.9776761610612</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2818,25 +2952,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>11.66666666666666</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>7.24932833333333</v>
+        <v>3.106855</v>
       </c>
       <c r="N7">
         <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>4235379.305869665</v>
+        <v>4512641.904149927</v>
       </c>
       <c r="P7">
-        <v>19.16222449843581</v>
+        <v>17.73854013572298</v>
       </c>
       <c r="Q7">
-        <v>0.03190299248871253</v>
+        <v>0.02915555407357753</v>
       </c>
       <c r="R7">
-        <v>30.10291557256902</v>
+        <v>29.51014135056064</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2844,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F8">
-        <v>101.50360589975</v>
+        <v>101.9776761648549</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2874,45 +3008,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>11.66666666666667</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M8">
-        <v>7.249328333333335</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N8">
-        <v>4719848.27318464</v>
+        <v>4512641.904149927</v>
       </c>
       <c r="O8">
-        <v>4236946.182888924</v>
+        <v>4220568.35887037</v>
       </c>
       <c r="P8">
-        <v>19.12536998080939</v>
+        <v>17.76453231085767</v>
       </c>
       <c r="Q8">
-        <v>0.03184131150799099</v>
+        <v>0.02922977745526039</v>
       </c>
       <c r="R8">
-        <v>30.097476139701</v>
+        <v>30.51456666306295</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F9">
-        <v>101.3455552604749</v>
+        <v>101.8090283884677</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2930,45 +3064,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M9">
-        <v>8.077823</v>
+        <v>5.178091666666668</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4180046.725947963</v>
+        <v>4370233.447551202</v>
       </c>
       <c r="P9">
-        <v>19.34951157296338</v>
+        <v>17.7612176193511</v>
       </c>
       <c r="Q9">
-        <v>0.03222638365552173</v>
+        <v>0.02920813616158855</v>
       </c>
       <c r="R9">
-        <v>30.29692429888627</v>
+        <v>29.98728929348979</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F10">
-        <v>101.1677118683601</v>
+        <v>101.8090283887959</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2986,45 +3120,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>3.333333333333329</v>
       </c>
       <c r="M10">
-        <v>8.077823</v>
+        <v>2.071236666666664</v>
       </c>
       <c r="N10">
-        <v>4719848.27318464</v>
+        <v>4370233.447551202</v>
       </c>
       <c r="O10">
-        <v>4182020.431595312</v>
+        <v>4222284.9006737</v>
       </c>
       <c r="P10">
-        <v>19.30665093070629</v>
+        <v>17.77429259651771</v>
       </c>
       <c r="Q10">
-        <v>0.0321545854671294</v>
+        <v>0.02924565068272606</v>
       </c>
       <c r="R10">
-        <v>30.28993909163358</v>
+        <v>30.50836065988065</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F11">
-        <v>100.9908799976133</v>
+        <v>101.6412550050389</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -3042,25 +3176,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M11">
-        <v>3.4175405</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N11">
         <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>4500754.854975943</v>
+        <v>4223994.499606662</v>
       </c>
       <c r="P11">
-        <v>17.93769953714449</v>
+        <v>17.78433592228278</v>
       </c>
       <c r="Q11">
-        <v>0.02981434096926472</v>
+        <v>0.02926199018108765</v>
       </c>
       <c r="R11">
-        <v>29.22188221464978</v>
+        <v>30.50218352005824</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3068,19 +3202,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F12">
-        <v>83.33255002174172</v>
+        <v>101.474350836439</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -3098,25 +3232,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M12">
-        <v>4.6602825</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N12">
-        <v>4500754.854975943</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O12">
-        <v>4285842.114645996</v>
+        <v>4218886.028599959</v>
       </c>
       <c r="P12">
-        <v>15.52649236098289</v>
+        <v>17.75752079348137</v>
       </c>
       <c r="Q12">
-        <v>0.02584151286148962</v>
+        <v>0.0292184231796562</v>
       </c>
       <c r="R12">
-        <v>29.92920856652562</v>
+        <v>30.52065265378209</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3124,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F13">
-        <v>83.21673830154236</v>
+        <v>101.3059523458698</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -3154,25 +3288,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>3.93181818181818</v>
       </c>
       <c r="M13">
-        <v>8.077823</v>
+        <v>2.443117795454544</v>
       </c>
       <c r="N13">
         <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>4360085.4169081</v>
+        <v>4559825.285667413</v>
       </c>
       <c r="P13">
-        <v>15.24680754573536</v>
+        <v>17.60520770192851</v>
       </c>
       <c r="Q13">
-        <v>0.02536404584909817</v>
+        <v>0.02893139793841922</v>
       </c>
       <c r="R13">
-        <v>29.67905072224767</v>
+        <v>29.35700417835938</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3180,19 +3314,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F14">
-        <v>83.12186444705873</v>
+        <v>101.3059523458701</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -3210,25 +3344,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>7.88636363636364</v>
       </c>
       <c r="M14">
-        <v>8.077823</v>
+        <v>4.900357659090911</v>
       </c>
       <c r="N14">
-        <v>4719848.27318464</v>
+        <v>4559825.285667413</v>
       </c>
       <c r="O14">
-        <v>4360919.713195967</v>
+        <v>4220602.97408973</v>
       </c>
       <c r="P14">
-        <v>15.22657678124351</v>
+        <v>17.63567916261244</v>
       </c>
       <c r="Q14">
-        <v>0.02533025722938453</v>
+        <v>0.02901775864034787</v>
       </c>
       <c r="R14">
-        <v>29.67627534738589</v>
+        <v>30.51444147741832</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3236,19 +3370,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F15">
-        <v>83.02732950400063</v>
+        <v>101.1384266742019</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -3266,25 +3400,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>7.86363636363636</v>
       </c>
       <c r="M15">
-        <v>8.077823</v>
+        <v>4.886235590909089</v>
       </c>
       <c r="N15">
         <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>4361749.954346891</v>
+        <v>4395076.944624769</v>
       </c>
       <c r="P15">
-        <v>15.20642947844147</v>
+        <v>17.63691862922219</v>
       </c>
       <c r="Q15">
-        <v>0.02529660847462048</v>
+        <v>0.02900106922098217</v>
       </c>
       <c r="R15">
-        <v>29.6735142395424</v>
+        <v>29.90238194537063</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3292,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F16">
-        <v>82.93313138722979</v>
+        <v>83.48009669833017</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -3322,25 +3456,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3.95454545454546</v>
       </c>
       <c r="M16">
-        <v>1.242742</v>
+        <v>2.457239863636367</v>
       </c>
       <c r="N16">
-        <v>4719848.27318464</v>
+        <v>4395076.944624769</v>
       </c>
       <c r="O16">
-        <v>4666625.685648637</v>
+        <v>4277208.149063417</v>
       </c>
       <c r="P16">
-        <v>14.21798648630459</v>
+        <v>14.57029511995486</v>
       </c>
       <c r="Q16">
-        <v>0.02360794901931006</v>
+        <v>0.0239689416940633</v>
       </c>
       <c r="R16">
-        <v>28.70918793367365</v>
+        <v>30.31176784233739</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3348,19 +3482,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F17">
-        <v>82.93313138722962</v>
+        <v>83.35817215494843</v>
       </c>
       <c r="G17">
         <v>650</v>
@@ -3378,25 +3512,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M17">
-        <v>6.835081</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N17">
-        <v>4666625.685648637</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O17">
-        <v>4362575.826650595</v>
+        <v>4385310.742065813</v>
       </c>
       <c r="P17">
-        <v>15.18636622145513</v>
+        <v>14.58727711142327</v>
       </c>
       <c r="Q17">
-        <v>0.02526310060140179</v>
+        <v>0.02398728953275086</v>
       </c>
       <c r="R17">
-        <v>29.67076842985918</v>
+        <v>29.9356736769853</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3404,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F18">
-        <v>82.83926793507251</v>
+        <v>83.26718957556959</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -3434,25 +3568,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>0.3939393939393909</v>
       </c>
       <c r="M18">
-        <v>8.077823</v>
+        <v>0.2447825151515133</v>
       </c>
       <c r="N18">
         <v>4719848.27318464</v>
       </c>
       <c r="O18">
-        <v>4363398.393387475</v>
+        <v>4709102.743059322</v>
       </c>
       <c r="P18">
-        <v>15.16638289604282</v>
+        <v>14.42576640305153</v>
       </c>
       <c r="Q18">
-        <v>0.02522972659090819</v>
+        <v>0.02369330693116114</v>
       </c>
       <c r="R18">
-        <v>29.66803437216216</v>
+        <v>28.88808041268108</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3460,19 +3594,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F19">
-        <v>82.74573728905925</v>
+        <v>83.26718957557077</v>
       </c>
       <c r="G19">
         <v>650</v>
@@ -3490,25 +3624,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11.42424242424243</v>
       </c>
       <c r="M19">
-        <v>8.077823</v>
+        <v>7.098692939393943</v>
       </c>
       <c r="N19">
-        <v>4719848.27318464</v>
+        <v>4709102.743059322</v>
       </c>
       <c r="O19">
-        <v>4364216.650330873</v>
+        <v>4386051.382265373</v>
       </c>
       <c r="P19">
-        <v>15.14648248044141</v>
+        <v>14.46175418553516</v>
       </c>
       <c r="Q19">
-        <v>0.02519649155268741</v>
+        <v>0.02378081490198043</v>
       </c>
       <c r="R19">
-        <v>29.66531539341196</v>
+        <v>29.93314503204199</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3516,19 +3650,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F20">
-        <v>82.65253732328325</v>
+        <v>83.17651692061025</v>
       </c>
       <c r="G20">
         <v>650</v>
@@ -3546,45 +3680,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>4.742424242424242</v>
       </c>
       <c r="M20">
-        <v>8.077823</v>
+        <v>2.946804893939394</v>
       </c>
       <c r="N20">
         <v>4719848.27318464</v>
       </c>
       <c r="O20">
-        <v>4365030.971922388</v>
+        <v>4589100.989462513</v>
       </c>
       <c r="P20">
-        <v>15.12666321380865</v>
+        <v>14.46489843093062</v>
       </c>
       <c r="Q20">
-        <v>0.02516339249287598</v>
+        <v>0.02376824369340538</v>
       </c>
       <c r="R20">
-        <v>29.66261023767038</v>
+        <v>29.26317776566481</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F21">
-        <v>82.55966602482256</v>
+        <v>83.1765169206105</v>
       </c>
       <c r="G21">
         <v>650</v>
@@ -3602,45 +3736,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>7.075757575757578</v>
       </c>
       <c r="M21">
-        <v>15.534275</v>
+        <v>4.396670560606062</v>
       </c>
       <c r="N21">
-        <v>4719848.27318464</v>
+        <v>4589100.989462513</v>
       </c>
       <c r="O21">
-        <v>4012111.291410397</v>
+        <v>4386785.729119765</v>
       </c>
       <c r="P21">
-        <v>16.40682185098374</v>
+        <v>14.4873872272926</v>
       </c>
       <c r="Q21">
-        <v>0.02735585834598879</v>
+        <v>0.02382290116920245</v>
       </c>
       <c r="R21">
-        <v>30.90965509872817</v>
+        <v>29.93063850595119</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F22">
-        <v>82.36498108385956</v>
+        <v>83.08615160641925</v>
       </c>
       <c r="G22">
         <v>650</v>
@@ -3658,45 +3792,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="M22">
-        <v>15.534275</v>
+        <v>5.648827272727274</v>
       </c>
       <c r="N22">
         <v>4719848.27318464</v>
       </c>
       <c r="O22">
-        <v>4015651.527973626</v>
+        <v>4466409.140953656</v>
       </c>
       <c r="P22">
-        <v>16.35404503534838</v>
+        <v>14.50459488491807</v>
       </c>
       <c r="Q22">
-        <v>0.02726720910957668</v>
+        <v>0.02384420282396576</v>
       </c>
       <c r="R22">
-        <v>30.89635060527717</v>
+        <v>29.66254184797568</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F23">
-        <v>82.17182874484857</v>
+        <v>83.08615160641978</v>
       </c>
       <c r="G23">
         <v>650</v>
@@ -3714,45 +3848,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>2.727272727272734</v>
       </c>
       <c r="M23">
-        <v>15.534275</v>
+        <v>1.694648181818186</v>
       </c>
       <c r="N23">
-        <v>4719848.27318464</v>
+        <v>4466409.140953656</v>
       </c>
       <c r="O23">
-        <v>4019152.872311133</v>
+        <v>4387522.113075241</v>
       </c>
       <c r="P23">
-        <v>16.30181710941141</v>
+        <v>14.51334105865925</v>
       </c>
       <c r="Q23">
-        <v>0.02717948686365966</v>
+        <v>0.02386551453217552</v>
       </c>
       <c r="R23">
-        <v>30.88320922202243</v>
+        <v>29.92812565886573</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F24">
-        <v>81.98018746274916</v>
+        <v>82.99609342415255</v>
       </c>
       <c r="G24">
         <v>650</v>
@@ -3770,45 +3904,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="M24">
-        <v>15.534275</v>
+        <v>7.343475454545449</v>
       </c>
       <c r="N24">
         <v>4719848.27318464</v>
       </c>
       <c r="O24">
-        <v>4022616.002075238</v>
+        <v>4388255.072674902</v>
       </c>
       <c r="P24">
-        <v>16.25012824887553</v>
+        <v>14.52391508409313</v>
       </c>
       <c r="Q24">
-        <v>0.02709267494913745</v>
+        <v>0.02388283771964618</v>
       </c>
       <c r="R24">
-        <v>30.87022781358409</v>
+        <v>29.92562512549114</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F25">
-        <v>81.79003613605795</v>
+        <v>82.90634061755283</v>
       </c>
       <c r="G25">
         <v>650</v>
@@ -3826,45 +3960,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>2.121212121212125</v>
       </c>
       <c r="M25">
-        <v>15.534275</v>
+        <v>1.318059696969699</v>
       </c>
       <c r="N25">
         <v>4719848.27318464</v>
       </c>
       <c r="O25">
-        <v>4026041.578587208</v>
+        <v>4662190.564484201</v>
       </c>
       <c r="P25">
-        <v>16.19896887885731</v>
+        <v>14.38488865675069</v>
       </c>
       <c r="Q25">
-        <v>0.02700675713117809</v>
+        <v>0.02363030796836476</v>
       </c>
       <c r="R25">
-        <v>30.85740332706013</v>
+        <v>29.03299059112346</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F26">
-        <v>81.60135409470182</v>
+        <v>82.90634061755314</v>
       </c>
       <c r="G26">
         <v>650</v>
@@ -3882,45 +4016,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>9.696969696969688</v>
       </c>
       <c r="M26">
-        <v>15.534275</v>
+        <v>6.025415757575752</v>
       </c>
       <c r="N26">
-        <v>4719848.27318464</v>
+        <v>4662190.564484201</v>
       </c>
       <c r="O26">
-        <v>4029430.247341765</v>
+        <v>4388980.181271587</v>
       </c>
       <c r="P26">
-        <v>16.14832966570856</v>
+        <v>14.41542362352533</v>
       </c>
       <c r="Q26">
-        <v>0.02692171758527013</v>
+        <v>0.02370437310878285</v>
       </c>
       <c r="R26">
-        <v>30.84473278927087</v>
+        <v>29.92315199289171</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F27">
-        <v>81.41412108834383</v>
+        <v>82.81689018430231</v>
       </c>
       <c r="G27">
         <v>650</v>
@@ -3938,45 +4072,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>6.969696969696983</v>
       </c>
       <c r="M27">
-        <v>15.534275</v>
+        <v>4.330767575757585</v>
       </c>
       <c r="N27">
         <v>4719848.27318464</v>
       </c>
       <c r="O27">
-        <v>4032782.638492551</v>
+        <v>4528061.075637412</v>
       </c>
       <c r="P27">
-        <v>16.0982015091656</v>
+        <v>14.43056745954526</v>
       </c>
       <c r="Q27">
-        <v>0.02683754088383504</v>
+        <v>0.02371713671083749</v>
       </c>
       <c r="R27">
-        <v>30.83221330411515</v>
+        <v>29.45983396463809</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F28">
-        <v>81.22831727508515</v>
+        <v>82.81689018430197</v>
       </c>
       <c r="G28">
         <v>650</v>
@@ -3994,25 +4128,977 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>4.848484848484844</v>
       </c>
       <c r="M28">
-        <v>15.534275</v>
+        <v>3.012707878787876</v>
       </c>
       <c r="N28">
+        <v>4528061.075637412</v>
+      </c>
+      <c r="O28">
+        <v>4389703.346438444</v>
+      </c>
+      <c r="P28">
+        <v>14.44598983331477</v>
+      </c>
+      <c r="Q28">
+        <v>0.02375457207462377</v>
+      </c>
+      <c r="R28">
+        <v>29.92068609935606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29">
+        <v>82.72774080569728</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>11.81818181818183</v>
+      </c>
+      <c r="M29">
+        <v>7.343475454545462</v>
+      </c>
+      <c r="N29">
         <v>4719848.27318464</v>
       </c>
-      <c r="O28">
-        <v>4036099.367319417</v>
-      </c>
-      <c r="P28">
-        <v>16.04857553481103</v>
-      </c>
-      <c r="Q28">
-        <v>0.02675421198337363</v>
-      </c>
-      <c r="R28">
-        <v>30.81984205003267</v>
+      <c r="O29">
+        <v>4390427.943066845</v>
+      </c>
+      <c r="P29">
+        <v>14.47695467328054</v>
+      </c>
+      <c r="Q29">
+        <v>0.0238054261428331</v>
+      </c>
+      <c r="R29">
+        <v>29.91821593606891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30">
+        <v>82.63889212201204</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O30">
+        <v>4248945.751403102</v>
+      </c>
+      <c r="P30">
+        <v>14.52406541874561</v>
+      </c>
+      <c r="Q30">
+        <v>0.02389539425364393</v>
+      </c>
+      <c r="R30">
+        <v>30.41245428616953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F31">
+        <v>82.63889212201214</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L31">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M31">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N31">
+        <v>4248945.751403102</v>
+      </c>
+      <c r="O31">
+        <v>3992706.601016642</v>
+      </c>
+      <c r="P31">
+        <v>14.55124049056735</v>
+      </c>
+      <c r="Q31">
+        <v>0.02396261231078147</v>
+      </c>
+      <c r="R31">
+        <v>31.37405732844616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32">
+        <v>82.43224668823387</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L32">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M32">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N32">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O32">
+        <v>4491720.654554019</v>
+      </c>
+      <c r="P32">
+        <v>14.38081766129064</v>
+      </c>
+      <c r="Q32">
+        <v>0.0236385250201034</v>
+      </c>
+      <c r="R32">
+        <v>29.57881401384673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33">
+        <v>82.43224668823386</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4491720.654554019</v>
+      </c>
+      <c r="O33">
+        <v>3996585.168007816</v>
+      </c>
+      <c r="P33">
+        <v>14.43398513069891</v>
+      </c>
+      <c r="Q33">
+        <v>0.02376918171064665</v>
+      </c>
+      <c r="R33">
+        <v>31.35881307288549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34">
+        <v>82.22735490824429</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N34">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O34">
+        <v>4253773.090416066</v>
+      </c>
+      <c r="P34">
+        <v>14.45173635840214</v>
+      </c>
+      <c r="Q34">
+        <v>0.02377597088891475</v>
+      </c>
+      <c r="R34">
+        <v>30.39518554510471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35">
+        <v>82.22735490824445</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L35">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M35">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N35">
+        <v>4253773.090416066</v>
+      </c>
+      <c r="O35">
+        <v>4000409.836050834</v>
+      </c>
+      <c r="P35">
+        <v>14.4787760998358</v>
+      </c>
+      <c r="Q35">
+        <v>0.02384260752424487</v>
+      </c>
+      <c r="R35">
+        <v>31.34380239990045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36">
+        <v>82.02418913804641</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L36">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M36">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N36">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O36">
+        <v>4493979.833443145</v>
+      </c>
+      <c r="P36">
+        <v>14.30962948602771</v>
+      </c>
+      <c r="Q36">
+        <v>0.02352131394351377</v>
+      </c>
+      <c r="R36">
+        <v>29.57137530550629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37">
+        <v>82.02418913804654</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L37">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M37">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N37">
+        <v>4493979.833443145</v>
+      </c>
+      <c r="O37">
+        <v>4004197.098644243</v>
+      </c>
+      <c r="P37">
+        <v>14.36253376489847</v>
+      </c>
+      <c r="Q37">
+        <v>0.02365086019015161</v>
+      </c>
+      <c r="R37">
+        <v>31.32895975241713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38">
+        <v>81.82272724008702</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L38">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M38">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N38">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O38">
+        <v>4258491.258129958</v>
+      </c>
+      <c r="P38">
+        <v>14.38062167412159</v>
+      </c>
+      <c r="Q38">
+        <v>0.02365855929589617</v>
+      </c>
+      <c r="R38">
+        <v>30.37833573479849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39">
+        <v>81.82272724008705</v>
+      </c>
+      <c r="G39">
+        <v>650</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>9.525</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L39">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M39">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N39">
+        <v>4258491.258129958</v>
+      </c>
+      <c r="O39">
+        <v>4007932.971744596</v>
+      </c>
+      <c r="P39">
+        <v>14.40752835731037</v>
+      </c>
+      <c r="Q39">
+        <v>0.02372462867801883</v>
+      </c>
+      <c r="R39">
+        <v>31.31433914466616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40">
+        <v>81.6229428664834</v>
+      </c>
+      <c r="G40">
+        <v>650</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>9.525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L40">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M40">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N40">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O40">
+        <v>4496189.582882936</v>
+      </c>
+      <c r="P40">
+        <v>14.23962958064549</v>
+      </c>
+      <c r="Q40">
+        <v>0.02340606226923772</v>
+      </c>
+      <c r="R40">
+        <v>29.56410477825145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41">
+        <v>81.62294286648347</v>
+      </c>
+      <c r="G41">
+        <v>650</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>9.525</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L41">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M41">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N41">
+        <v>4496189.582882936</v>
+      </c>
+      <c r="O41">
+        <v>4011632.208642931</v>
+      </c>
+      <c r="P41">
+        <v>14.29227506214354</v>
+      </c>
+      <c r="Q41">
+        <v>0.02353452450087901</v>
+      </c>
+      <c r="R41">
+        <v>31.29988206599901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42">
+        <v>81.42481458511482</v>
+      </c>
+      <c r="G42">
+        <v>650</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>9.525</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L42">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M42">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N42">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O42">
+        <v>4263104.021114981</v>
+      </c>
+      <c r="P42">
+        <v>14.3106871761708</v>
+      </c>
+      <c r="Q42">
+        <v>0.02354310264541411</v>
+      </c>
+      <c r="R42">
+        <v>30.36188941331718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43">
+        <v>81.42481458511494</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>9.525</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L43">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M43">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N43">
+        <v>4263104.021114981</v>
+      </c>
+      <c r="O43">
+        <v>4015282.442834999</v>
+      </c>
+      <c r="P43">
+        <v>14.33746300928767</v>
+      </c>
+      <c r="Q43">
+        <v>0.02360861840411159</v>
+      </c>
+      <c r="R43">
+        <v>31.28563610545507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44">
+        <v>81.22831727508505</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44">
+        <v>9.525</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L44">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M44">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N44">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O44">
+        <v>4498351.552590257</v>
+      </c>
+      <c r="P44">
+        <v>14.1707846940583</v>
+      </c>
+      <c r="Q44">
+        <v>0.02329271508913296</v>
+      </c>
+      <c r="R44">
+        <v>29.55699664357599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45">
+        <v>81.22831727508517</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>9.525</v>
+      </c>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L45">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M45">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N45">
+        <v>4498351.552590257</v>
+      </c>
+      <c r="O45">
+        <v>4018896.773959124</v>
+      </c>
+      <c r="P45">
+        <v>14.22317564841557</v>
+      </c>
+      <c r="Q45">
+        <v>0.02342011875515169</v>
+      </c>
+      <c r="R45">
+        <v>31.27154941426402</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +5108,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4030,58 +5116,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4092,13 +5178,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>11.66666666666667</v>
@@ -4107,22 +5193,22 @@
         <v>7.249328333333333</v>
       </c>
       <c r="H2">
-        <v>1.116068236792201</v>
+        <v>1.119677636567761</v>
       </c>
       <c r="I2">
-        <v>36.03882627077881</v>
+        <v>38.08569466312465</v>
       </c>
       <c r="J2">
-        <v>3.770626467820416</v>
+        <v>3.984783723618233</v>
       </c>
       <c r="K2">
-        <v>5056.485505876534</v>
+        <v>5343.674669046522</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.770626467820416</v>
+        <v>3.984783723618233</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -4131,13 +5217,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>12191264.80375407</v>
+        <v>12506675.77274331</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>12191264.80375407</v>
+        <v>12506675.77274331</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4148,13 +5234,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F3">
         <v>23.33333333333333</v>
@@ -4163,22 +5249,22 @@
         <v>14.49865666666667</v>
       </c>
       <c r="H3">
-        <v>1.115641949449286</v>
+        <v>1.119214752767382</v>
       </c>
       <c r="I3">
-        <v>35.85494772224582</v>
+        <v>37.88678462044848</v>
       </c>
       <c r="J3">
-        <v>3.751387846763407</v>
+        <v>3.963972405680329</v>
       </c>
       <c r="K3">
-        <v>5030.686130266664</v>
+        <v>5315.766275465435</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.751387846763407</v>
+        <v>3.963972405680329</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -4187,13 +5273,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>12162965.33214601</v>
+        <v>12475993.31860835</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>12162965.33214601</v>
+        <v>12475993.31860835</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4204,13 +5290,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -4219,22 +5305,22 @@
         <v>21.747985</v>
       </c>
       <c r="H4">
-        <v>1.115220024825247</v>
+        <v>1.118754294039912</v>
       </c>
       <c r="I4">
-        <v>35.67306039223713</v>
+        <v>37.68922567795127</v>
       </c>
       <c r="J4">
-        <v>3.732357560495509</v>
+        <v>3.943302449008111</v>
       </c>
       <c r="K4">
-        <v>5005.166135775688</v>
+        <v>5288.047450168857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.732357560495509</v>
+        <v>3.943302449008111</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -4243,13 +5329,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>12134978.02167649</v>
+        <v>12445525.99409463</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>12134978.02167649</v>
+        <v>12445525.99409463</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4260,13 +5346,13 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F5">
         <v>46.66666666666666</v>
@@ -4275,22 +5361,22 @@
         <v>28.99731333333333</v>
       </c>
       <c r="H5">
-        <v>1.114801941114599</v>
+        <v>1.118296843425112</v>
       </c>
       <c r="I5">
-        <v>35.49296169913517</v>
+        <v>37.49320512744882</v>
       </c>
       <c r="J5">
-        <v>3.713514413553713</v>
+        <v>3.92279344934181</v>
       </c>
       <c r="K5">
-        <v>4979.8970988638</v>
+        <v>5260.544471436354</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.713514413553713</v>
+        <v>3.92279344934181</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -4299,13 +5385,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>12107271.52378972</v>
+        <v>12415302.53629384</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>12107271.52378972</v>
+        <v>12415302.53629384</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4316,13 +5402,13 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F6">
         <v>58.33333333333333</v>
@@ -4331,22 +5417,22 @@
         <v>36.24664166666666</v>
       </c>
       <c r="H6">
-        <v>1.114386205420508</v>
+        <v>1.117842207291969</v>
       </c>
       <c r="I6">
-        <v>35.31419496080006</v>
+        <v>37.29866131269092</v>
       </c>
       <c r="J6">
-        <v>3.69481062475472</v>
+        <v>3.902438955786296</v>
       </c>
       <c r="K6">
-        <v>4954.814944008574</v>
+        <v>5233.248688488538</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.69481062475472</v>
+        <v>3.902438955786296</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -4355,13 +5441,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>12079775.43746978</v>
+        <v>12385313.28662439</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>12079775.43746978</v>
+        <v>12385313.28662439</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4369,13 +5455,13 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F7">
         <v>70</v>
@@ -4384,16 +5470,16 @@
         <v>43.49597</v>
       </c>
       <c r="H7">
-        <v>1.113974091114477</v>
+        <v>1.117389777288808</v>
       </c>
       <c r="I7">
-        <v>35.13712885102428</v>
+        <v>37.10540968692987</v>
       </c>
       <c r="J7">
-        <v>3.676284767251533</v>
+        <v>3.88221965980898</v>
       </c>
       <c r="K7">
-        <v>4929.971398579652</v>
+        <v>5206.134208197038</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4425,37 +5511,37 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F8">
-        <v>83</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G8">
-        <v>51.573793</v>
+        <v>50.83944545454546</v>
       </c>
       <c r="H8">
-        <v>1.129137682573216</v>
+        <v>1.118742777403476</v>
       </c>
       <c r="I8">
-        <v>39.53736938944178</v>
+        <v>37.4376201062648</v>
       </c>
       <c r="J8">
-        <v>4.13666778067909</v>
+        <v>3.916977767373811</v>
       </c>
       <c r="K8">
-        <v>5547.354227246274</v>
+        <v>5252.745525603627</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.13666778067909</v>
+        <v>3.916977767373811</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -4464,13 +5550,13 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>12730806.36114193</v>
+        <v>12406733.35113453</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>12730806.36114193</v>
+        <v>12406733.35113453</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4481,37 +5567,37 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F9">
-        <v>96</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G9">
-        <v>59.651616</v>
+        <v>58.18292090909091</v>
       </c>
       <c r="H9">
-        <v>1.12860478574567</v>
+        <v>1.118287671728371</v>
       </c>
       <c r="I9">
-        <v>39.31249246322872</v>
+        <v>37.24357876346446</v>
       </c>
       <c r="J9">
-        <v>4.113139631243532</v>
+        <v>3.896675845842932</v>
       </c>
       <c r="K9">
-        <v>5515.8025082902</v>
+        <v>5225.520242792289</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.113139631243532</v>
+        <v>3.896675845842932</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -4520,13 +5606,13 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>12696062.93763877</v>
+        <v>12376823.40030325</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>12696062.93763877</v>
+        <v>12376823.40030325</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4537,37 +5623,37 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F10">
-        <v>109</v>
+        <v>105.4545454545455</v>
       </c>
       <c r="G10">
-        <v>67.729439</v>
+        <v>65.52639636363637</v>
       </c>
       <c r="H10">
-        <v>1.101265083250621</v>
+        <v>1.103488095200171</v>
       </c>
       <c r="I10">
-        <v>25.74675797322108</v>
+        <v>27.10573423892676</v>
       </c>
       <c r="J10">
-        <v>2.693800467999975</v>
+        <v>2.835985783307106</v>
       </c>
       <c r="K10">
-        <v>3612.440303597327</v>
+        <v>3803.113655130495</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.693800467999975</v>
+        <v>2.835985783307106</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -4576,13 +5662,13 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>10616207.60117437</v>
+        <v>10823138.61767111</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>10616207.60117437</v>
+        <v>10823138.61767111</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4593,37 +5679,37 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F11">
-        <v>122</v>
+        <v>117.2727272727273</v>
       </c>
       <c r="G11">
-        <v>75.80726199999999</v>
+        <v>72.86987181818182</v>
       </c>
       <c r="H11">
-        <v>1.082512800066119</v>
+        <v>1.076285935204043</v>
       </c>
       <c r="I11">
-        <v>21.0919427255906</v>
+        <v>20.22685136732043</v>
       </c>
       <c r="J11">
-        <v>2.206782121629444</v>
+        <v>2.116270395524172</v>
       </c>
       <c r="K11">
-        <v>2959.338960747517</v>
+        <v>2837.960925805825</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.206782121629444</v>
+        <v>2.116270395524172</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -4649,37 +5735,37 @@
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F12">
-        <v>135</v>
+        <v>129.0909090909091</v>
       </c>
       <c r="G12">
-        <v>83.885085</v>
+        <v>80.21334727272728</v>
       </c>
       <c r="H12">
-        <v>1.082305702373417</v>
+        <v>1.076104190723562</v>
       </c>
       <c r="I12">
-        <v>21.01659741138637</v>
+        <v>20.15795031849139</v>
       </c>
       <c r="J12">
-        <v>2.198898983765017</v>
+        <v>2.109061500416896</v>
       </c>
       <c r="K12">
-        <v>2948.767515208563</v>
+        <v>2828.293653289066</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.198898983765017</v>
+        <v>2.109061500416896</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -4705,37 +5791,37 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
         <v>206</v>
       </c>
-      <c r="D13" t="s">
-        <v>182</v>
-      </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F13">
-        <v>148</v>
+        <v>140.9090909090909</v>
       </c>
       <c r="G13">
-        <v>91.962908</v>
+        <v>87.55682272727275</v>
       </c>
       <c r="H13">
-        <v>1.082099689937721</v>
+        <v>1.075924051146147</v>
       </c>
       <c r="I13">
-        <v>20.94171565603371</v>
+        <v>20.0896236552629</v>
       </c>
       <c r="J13">
-        <v>2.191064346572114</v>
+        <v>2.1019127014274</v>
       </c>
       <c r="K13">
-        <v>2938.261110040136</v>
+        <v>2818.706970868172</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.191064346572114</v>
+        <v>2.1019127014274</v>
       </c>
       <c r="N13">
         <v>0.78</v>
@@ -4761,37 +5847,37 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F14">
-        <v>161</v>
+        <v>152.7272727272727</v>
       </c>
       <c r="G14">
-        <v>100.040731</v>
+        <v>94.9002981818182</v>
       </c>
       <c r="H14">
-        <v>1.081894839363364</v>
+        <v>1.075743472407589</v>
       </c>
       <c r="I14">
-        <v>20.86731447457491</v>
+        <v>20.02134342154093</v>
       </c>
       <c r="J14">
-        <v>2.18327999027988</v>
+        <v>2.094768760207821</v>
       </c>
       <c r="K14">
-        <v>2927.822132565125</v>
+        <v>2809.126802813892</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.18327999027988</v>
+        <v>2.094768760207821</v>
       </c>
       <c r="N14">
         <v>0.78</v>
@@ -4817,37 +5903,37 @@
         <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F15">
-        <v>174</v>
+        <v>164.5454545454546</v>
       </c>
       <c r="G15">
-        <v>108.118554</v>
+        <v>102.2437736363636</v>
       </c>
       <c r="H15">
-        <v>1.081690885786947</v>
+        <v>1.075563793584955</v>
       </c>
       <c r="I15">
-        <v>20.79332646002601</v>
+        <v>19.95345363131741</v>
       </c>
       <c r="J15">
-        <v>2.175538862312408</v>
+        <v>2.087665669835559</v>
       </c>
       <c r="K15">
-        <v>2917.441125138185</v>
+        <v>2799.601416562882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.175538862312408</v>
+        <v>2.087665669835559</v>
       </c>
       <c r="N15">
         <v>0.78</v>
@@ -4873,37 +5959,37 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F16">
-        <v>187</v>
+        <v>176.3636363636364</v>
       </c>
       <c r="G16">
-        <v>116.196377</v>
+        <v>109.5872490909091</v>
       </c>
       <c r="H16">
-        <v>1.081488077093241</v>
+        <v>1.075386098420976</v>
       </c>
       <c r="I16">
-        <v>20.71981106779274</v>
+        <v>19.88623130338864</v>
       </c>
       <c r="J16">
-        <v>2.167847183297554</v>
+        <v>2.080632413896195</v>
       </c>
       <c r="K16">
-        <v>2907.126429745686</v>
+        <v>2790.169679683076</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.167847183297554</v>
+        <v>2.080632413896195</v>
       </c>
       <c r="N16">
         <v>0.78</v>
@@ -4922,41 +6008,44 @@
       </c>
     </row>
     <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>188.1818181818182</v>
       </c>
       <c r="G17">
-        <v>124.2742</v>
+        <v>116.9307245454546</v>
       </c>
       <c r="H17">
-        <v>1.08128631928263</v>
+        <v>1.075208937983032</v>
       </c>
       <c r="I17">
-        <v>20.6467431796245</v>
+        <v>19.81930214378559</v>
       </c>
       <c r="J17">
-        <v>2.16020232519355</v>
+        <v>2.073629831215724</v>
       </c>
       <c r="K17">
-        <v>2896.874522131055</v>
+        <v>2780.77907625691</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.5</v>
+        <v>2.073629831215724</v>
       </c>
       <c r="N17">
         <v>0.78</v>
@@ -4965,54 +6054,51 @@
         <v>0.357</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q17">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>16916025.69007904</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18">
-        <v>2</v>
-      </c>
       <c r="B18" t="s">
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F18">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>139.808475</v>
+        <v>124.2742</v>
       </c>
       <c r="H18">
-        <v>1.176400137077316</v>
+        <v>1.075031485401782</v>
       </c>
       <c r="I18">
-        <v>43.28150939661361</v>
+        <v>19.7524529569708</v>
       </c>
       <c r="J18">
-        <v>4.528405105979122</v>
+        <v>2.066635615830844</v>
       </c>
       <c r="K18">
-        <v>6072.681815220121</v>
+        <v>2771.399693541478</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.528405105979122</v>
+        <v>12.5</v>
       </c>
       <c r="N18">
         <v>0.78</v>
@@ -5021,13 +6107,13 @@
         <v>0.357</v>
       </c>
       <c r="P18">
-        <v>13310549.64341423</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R18">
-        <v>13310549.64341423</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5038,37 +6124,37 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G19">
-        <v>155.34275</v>
+        <v>139.808475</v>
       </c>
       <c r="H19">
-        <v>1.175363011532618</v>
+        <v>1.182117481906346</v>
       </c>
       <c r="I19">
-        <v>42.94078799587851</v>
+        <v>45.94051414351117</v>
       </c>
       <c r="J19">
-        <v>4.492756521807381</v>
+        <v>4.80660821951508</v>
       </c>
       <c r="K19">
-        <v>6024.876350874134</v>
+        <v>6445.757754534112</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.492756521807381</v>
+        <v>4.80660821951508</v>
       </c>
       <c r="N19">
         <v>0.78</v>
@@ -5077,13 +6163,13 @@
         <v>0.357</v>
       </c>
       <c r="P19">
-        <v>13257692.81597886</v>
+        <v>13723730.8144163</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>13257692.81597886</v>
+        <v>13723730.8144163</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5094,37 +6180,37 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F20">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>170.877025</v>
+        <v>155.34275</v>
       </c>
       <c r="H20">
-        <v>1.174339076699659</v>
+        <v>1.180970272062875</v>
       </c>
       <c r="I20">
-        <v>42.60485639483465</v>
+        <v>45.55064945980518</v>
       </c>
       <c r="J20">
-        <v>4.457609078970145</v>
+        <v>4.765817931723653</v>
       </c>
       <c r="K20">
-        <v>5977.742927080543</v>
+        <v>6391.057162800053</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.457609078970145</v>
+        <v>4.765817931723653</v>
       </c>
       <c r="N20">
         <v>0.78</v>
@@ -5133,51 +6219,54 @@
         <v>0.357</v>
       </c>
       <c r="P20">
-        <v>13205598.53787593</v>
+        <v>13663074.09012518</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>13205598.53787593</v>
+        <v>13663074.09012518</v>
       </c>
     </row>
     <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
       <c r="B21" t="s">
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>275.0000000000001</v>
       </c>
       <c r="G21">
-        <v>186.4113</v>
+        <v>170.877025</v>
       </c>
       <c r="H21">
-        <v>1.173328070775263</v>
+        <v>1.179841182933404</v>
       </c>
       <c r="I21">
-        <v>42.27361598825131</v>
+        <v>45.16693046928879</v>
       </c>
       <c r="J21">
-        <v>4.422952460719306</v>
+        <v>4.725670648042011</v>
       </c>
       <c r="K21">
-        <v>5931.267708873804</v>
+        <v>6337.218852437298</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12.5</v>
+        <v>4.725670648042011</v>
       </c>
       <c r="N21">
         <v>0.78</v>
@@ -5186,54 +6275,51 @@
         <v>0.357</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>13603398.99923224</v>
       </c>
       <c r="Q21">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>16916025.69007904</v>
+        <v>13603398.99923224</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22">
-        <v>3</v>
-      </c>
       <c r="B22" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F22">
-        <v>325</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G22">
-        <v>201.945575</v>
+        <v>186.4113</v>
       </c>
       <c r="H22">
-        <v>1.172329739038835</v>
+        <v>1.178725261746657</v>
       </c>
       <c r="I22">
-        <v>41.94697086242873</v>
+        <v>44.78813300331705</v>
       </c>
       <c r="J22">
-        <v>4.388776631912977</v>
+        <v>4.686038287642569</v>
       </c>
       <c r="K22">
-        <v>5885.437238927941</v>
+        <v>6284.071064494438</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.388776631912977</v>
+        <v>12.5</v>
       </c>
       <c r="N22">
         <v>0.78</v>
@@ -5242,13 +6328,13 @@
         <v>0.357</v>
       </c>
       <c r="P22">
-        <v>13103633.63747904</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R22">
-        <v>13103633.63747904</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5259,37 +6345,37 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F23">
-        <v>350</v>
+        <v>325.0000000000001</v>
       </c>
       <c r="G23">
-        <v>217.47985</v>
+        <v>201.945575</v>
       </c>
       <c r="H23">
-        <v>1.171343833609813</v>
+        <v>1.177626548761907</v>
       </c>
       <c r="I23">
-        <v>41.62482770344008</v>
+        <v>44.41519308402132</v>
       </c>
       <c r="J23">
-        <v>4.355071829415157</v>
+        <v>4.647018783510063</v>
       </c>
       <c r="K23">
-        <v>5840.238424682313</v>
+        <v>6231.745129062665</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.355071829415157</v>
+        <v>4.647018783510063</v>
       </c>
       <c r="N23">
         <v>0.78</v>
@@ -5298,13 +6384,13 @@
         <v>0.357</v>
       </c>
       <c r="P23">
-        <v>13053732.13061269</v>
+        <v>13486563.75308981</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>13053732.13061269</v>
+        <v>13486563.75308981</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5315,37 +6401,37 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F24">
-        <v>375</v>
+        <v>350.0000000000001</v>
       </c>
       <c r="G24">
-        <v>233.014125</v>
+        <v>217.47985</v>
       </c>
       <c r="H24">
-        <v>1.170370113215155</v>
+        <v>1.17654062678425</v>
       </c>
       <c r="I24">
-        <v>41.30709570912527</v>
+        <v>44.04701786062734</v>
       </c>
       <c r="J24">
-        <v>4.321828552887912</v>
+        <v>4.608497794183321</v>
       </c>
       <c r="K24">
-        <v>5795.658525993748</v>
+        <v>6180.087711955716</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.321828552887912</v>
+        <v>4.608497794183321</v>
       </c>
       <c r="N24">
         <v>0.78</v>
@@ -5354,13 +6440,69 @@
         <v>0.357</v>
       </c>
       <c r="P24">
-        <v>13004531.37311167</v>
+        <v>13429377.21872473</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>13004531.37311167</v>
+        <v>13429377.21872473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25">
+        <v>375.0000000000001</v>
+      </c>
+      <c r="G25">
+        <v>233.014125</v>
+      </c>
+      <c r="H25">
+        <v>1.175471051010843</v>
+      </c>
+      <c r="I25">
+        <v>43.6844274056217</v>
+      </c>
+      <c r="J25">
+        <v>4.570561121208711</v>
+      </c>
+      <c r="K25">
+        <v>6129.213874763306</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4.570561121208711</v>
+      </c>
+      <c r="N25">
+        <v>0.78</v>
+      </c>
+      <c r="O25">
+        <v>0.357</v>
+      </c>
+      <c r="P25">
+        <v>13373080.86214064</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13373080.86214064</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +6512,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5378,15 +6520,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -5394,15 +6536,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B3">
-        <v>4228996.1470012</v>
+        <v>4215363.528785638</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>4719848.27318464</v>
@@ -5410,71 +6552,71 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5">
-        <v>4230612.048529098</v>
+        <v>4651355.367264377</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B6">
-        <v>4719848.27318464</v>
+        <v>4217106.914927895</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B7">
-        <v>4232212.629004964</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B8">
-        <v>4719848.27318464</v>
+        <v>4582296.713969789</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B9">
-        <v>4517808.533987975</v>
+        <v>4218842.598709397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B10">
-        <v>4233799.833955843</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>4719848.27318464</v>
+        <v>4512641.904149927</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B12">
-        <v>4235379.305869665</v>
+        <v>4220568.35887037</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B13">
         <v>4719848.27318464</v>
@@ -5482,103 +6624,103 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B14">
-        <v>4236946.182888924</v>
+        <v>4370233.447551202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="B15">
-        <v>4719848.27318464</v>
+        <v>4222284.9006737</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B16">
-        <v>4180046.725947963</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="B17">
-        <v>4719848.27318464</v>
+        <v>4223994.499606662</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B18">
-        <v>4182020.431595312</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B19">
-        <v>4719848.27318464</v>
+        <v>4218886.028599959</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B20">
-        <v>4500754.854975943</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21">
-        <v>4285842.114645996</v>
+        <v>4559825.285667413</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B22">
-        <v>4719848.27318464</v>
+        <v>4220602.97408973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B23">
-        <v>4360085.4169081</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>4719848.27318464</v>
+        <v>4395076.944624769</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B25">
-        <v>4360919.713195967</v>
+        <v>4277208.149063417</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>4719848.27318464</v>
@@ -5586,15 +6728,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B27">
-        <v>4361749.954346891</v>
+        <v>4385310.742065813</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B28">
         <v>4719848.27318464</v>
@@ -5602,23 +6744,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B29">
-        <v>4666625.685648637</v>
+        <v>4709102.743059322</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B30">
-        <v>4362575.826650595</v>
+        <v>4386051.382265373</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B31">
         <v>4719848.27318464</v>
@@ -5626,47 +6768,47 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32">
-        <v>4363398.393387475</v>
+        <v>4589100.989462513</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="B33">
-        <v>4719848.27318464</v>
+        <v>4386785.729119765</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34">
-        <v>4364216.650330873</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B35">
-        <v>4719848.27318464</v>
+        <v>4466409.140953656</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B36">
-        <v>4365030.971922388</v>
+        <v>4387522.113075241</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B37">
         <v>4719848.27318464</v>
@@ -5674,15 +6816,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B38">
-        <v>4012111.291410397</v>
+        <v>4388255.072674902</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>4719848.27318464</v>
@@ -5690,47 +6832,47 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B40">
-        <v>4015651.527973626</v>
+        <v>4662190.564484201</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="B41">
-        <v>4719848.27318464</v>
+        <v>4388980.181271587</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B42">
-        <v>4019152.872311133</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B43">
-        <v>4719848.27318464</v>
+        <v>4528061.075637412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B44">
-        <v>4022616.002075238</v>
+        <v>4389703.346438444</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B45">
         <v>4719848.27318464</v>
@@ -5738,15 +6880,15 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B46">
-        <v>4026041.578587208</v>
+        <v>4390427.943066845</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>4719848.27318464</v>
@@ -5754,42 +6896,186 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48">
-        <v>4029430.247341765</v>
+        <v>4248945.751403102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B49">
-        <v>4719848.27318464</v>
+        <v>3992706.601016642</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50">
-        <v>4032782.638492551</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B51">
-        <v>4719848.27318464</v>
+        <v>4491720.654554019</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52">
+        <v>3996585.168007816</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>218</v>
       </c>
-      <c r="B52">
-        <v>4036099.367319417</v>
+      <c r="B53">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54">
+        <v>4253773.090416066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55">
+        <v>4000409.836050834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57">
+        <v>4493979.833443145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>4004197.098644243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60">
+        <v>4258491.258129958</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61">
+        <v>4007932.971744596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63">
+        <v>4496189.582882936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64">
+        <v>4011632.208642931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66">
+        <v>4263104.021114981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67">
+        <v>4015282.442834999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69">
+        <v>4498351.552590257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70">
+        <v>4018896.773959124</v>
       </c>
     </row>
   </sheetData>
@@ -5807,36 +7093,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65832997587161</v>
+        <v>17.65832997587171</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -5845,21 +7131,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.52039999999</v>
+        <v>1150.520399999996</v>
       </c>
       <c r="G2">
-        <v>-8.85244539437285E-13</v>
+        <v>-3.219071052499218E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732334162</v>
+        <v>45.91165732334164</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -5868,21 +7154,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353</v>
+        <v>2991.353000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.095260668792535E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665995174353</v>
+        <v>35.31665995174355</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -5891,10 +7177,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.0408</v>
+        <v>2301.040800000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4.023838815624023E-14</v>
       </c>
     </row>
   </sheetData>
